--- a/MachineLearningModels/Glucose_PH_Data.xlsx
+++ b/MachineLearningModels/Glucose_PH_Data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\MachineLearningModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:4000b_{5E4632AE-B00E-4081-AED3-CEF1B6D896D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC926C5-54E2-44E3-B9F4-FF7685E6DB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4"/>
+    <workbookView xWindow="24912" yWindow="1608" windowWidth="16728" windowHeight="8508" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs_calculations" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>concentration_protein_g/L</t>
   </si>
@@ -148,9 +148,6 @@
     <t>cv_prop ==  + pH * 0.9856610323688368 + 0.001655683582814163</t>
   </si>
   <si>
-    <t>cv_clacu</t>
-  </si>
-  <si>
     <t>mean</t>
   </si>
   <si>
@@ -162,11 +159,32 @@
   <si>
     <t>normalised</t>
   </si>
+  <si>
+    <t xml:space="preserve">cv_calculated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ph1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ph2 </t>
+  </si>
+  <si>
+    <t>ph3</t>
+  </si>
+  <si>
+    <t>calculated</t>
+  </si>
+  <si>
+    <t>CV_Acetate</t>
+  </si>
+  <si>
+    <t>CV_Propionate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -225,17 +243,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1350,6 +1358,587 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8AEA-4CFB-A032-513B869DF68A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>poly reg</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$P$2:$P$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="88"/>
+                <c:pt idx="0">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5500000000000096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6500000000000101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.7500000000000098</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.8500000000000103</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.9000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9500000000000099</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0500000000000096</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.1000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.1500000000000101</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.2000000000000197</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.2500000000000204</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.3000000000000203</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.3500000000000201</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.4000000000000199</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.4500000000000197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.5000000000000204</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.5500000000000203</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.6000000000000201</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.6500000000000199</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.7000000000000197</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.7500000000000204</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.8000000000000203</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.8500000000000201</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.9000000000000297</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.9500000000000304</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.0000000000000302</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.05000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.1000000000000298</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.1500000000000297</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.2000000000000304</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.2500000000000302</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.30000000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.3500000000000298</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.4000000000000297</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.4500000000000304</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.5000000000000302</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.55000000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.6000000000000396</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.6500000000000403</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.7000000000000401</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.75000000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.8000000000000398</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.8500000000000396</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.9000000000000403</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.9500000000000401</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.00000000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.0500000000000398</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.1000000000000396</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.1500000000000403</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.2000000000000401</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.25000000000004</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.3000000000000496</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.3500000000000503</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.4000000000000501</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.4500000000000499</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.5000000000000497</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.5500000000000496</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.6000000000000503</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.6500000000000501</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.7000000000000499</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.7500000000000497</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.8000000000000496</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.8500000000000503</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.9000000000000501</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.9500000000000499</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.0000000000000604</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.0500000000000593</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.10000000000006</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1500000000000608</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.2000000000000597</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.2500000000000604</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.3000000000000593</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.35000000000006</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.4000000000000608</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.4500000000000597</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$T$2:$T$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="88"/>
+                <c:pt idx="0">
+                  <c:v>4.6066490619966191E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7738813851216221E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.94411675699662E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1173790388716202E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2936920919966206E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4730797776216179E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6555659569966214E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8411744913716208E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0299292419966573E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.2218540701216567E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.4169728369966622E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6153094038716609E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.8168876319966598E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0217313826216599E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.2298645169966619E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.441310896371664E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.6560943819966643E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.8742388351216636E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.0957681169966655E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.3207060888716627E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.5490766119966671E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.7809035476216685E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.0162107569967148E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.2550221013717182E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.4973614419967184E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.743252640121719E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.9927195569967209E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.10245786053871722</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.10502475991996726</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.10762813232621726</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.11026821636996728</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.11294525066371727</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.1156594738199673</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.11841112445121735</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.12120044116996734</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.12402766258871736</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.12689302731996793</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.12979677397621797</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.13273914116996802</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.13572036751371799</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.13874069161996802</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.14180035210121805</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.1448995875699681</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.14803863663871811</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.15121773791996815</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.15443713002621814</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.15769705156996813</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.16099774116371821</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.16433943741996823</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.16772237895121825</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.17114680436996893</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.17461295228871901</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.17812106131996905</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.18167137007621906</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.1852641171699691</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.1888995412137191</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.19257788081996918</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.19629937460121921</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.20006426116996925</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.20387277913871926</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.20772516711996927</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.21162166372621938</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.21556250756996939</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.21954793726371943</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.22357819141997023</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.22765350865122033</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.23177412756997037</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.23594028678872039</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.24015222491997043</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.24441018057622046</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.24871439236997053</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.25306509891372059</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.25746253881997061</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.26190695070122061</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.26639857316997068</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.27093764483872079</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.27552440431997077</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.28015909022622082</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.28484194116997186</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.28957319576372181</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.29435309261997195</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.29918187035122207</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.30405976756997205</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.30898702288872215</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.31396387491997207</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.3189905622762223</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.32406732356997242</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.32919439741372236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8AEA-4CFB-A032-513B869DF68A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2433,28 +3022,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C65536"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" customWidth="1"/>
-    <col min="5" max="5" width="23.453125" customWidth="1"/>
-    <col min="6" max="10" width="8.7265625" customWidth="1"/>
-    <col min="11" max="11" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" customWidth="1"/>
-    <col min="13" max="13" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="256" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="6" max="10" width="8.77734375" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="256" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2526,7 +3115,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G3">
-        <f>F3*$N$9*6</f>
+        <f t="shared" ref="G3:G33" si="1">F3*$N$9*6</f>
         <v>4</v>
       </c>
       <c r="M3" s="2" t="s">
@@ -2554,7 +3143,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G4">
-        <f>F4*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -2582,7 +3171,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G5">
-        <f>F5*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M5" s="2" t="s">
@@ -2610,7 +3199,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G6">
-        <f>F6*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M6" s="2" t="s">
@@ -2638,7 +3227,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G7">
-        <f>F7*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M7" s="2" t="s">
@@ -2666,7 +3255,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G8">
-        <f>F8*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -2694,7 +3283,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G9">
-        <f>F9*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -2722,7 +3311,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G10">
-        <f>F10*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2744,7 +3333,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G11">
-        <f>F11*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2766,7 +3355,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G12">
-        <f>F12*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2788,7 +3377,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G13">
-        <f>F13*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2810,7 +3399,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G14">
-        <f>F14*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2832,7 +3421,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G15">
-        <f>F15*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2854,7 +3443,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G16">
-        <f>F16*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2876,7 +3465,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G17">
-        <f>F17*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2898,7 +3487,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G18">
-        <f>F18*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2920,7 +3509,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G19">
-        <f>F19*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2942,7 +3531,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G20">
-        <f>F20*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2964,7 +3553,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G21">
-        <f>F21*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2986,7 +3575,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G22">
-        <f>F22*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -3008,7 +3597,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G23">
-        <f>F23*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -3030,7 +3619,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G24">
-        <f>F24*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -3052,7 +3641,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G25">
-        <f>F25*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -3074,7 +3663,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G26">
-        <f>F26*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -3096,7 +3685,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G27">
-        <f>F27*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -3118,7 +3707,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G28">
-        <f>F28*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -3140,7 +3729,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G29">
-        <f>F29*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -3162,7 +3751,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G30">
-        <f>F30*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -3184,7 +3773,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G31">
-        <f>F31*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -3206,7 +3795,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G32">
-        <f>F32*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -3228,7 +3817,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G33">
-        <f>F33*$N$9*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -3250,7 +3839,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G34">
-        <f>F34*$N$9*6</f>
+        <f t="shared" ref="G34:G65" si="2">F34*$N$9*6</f>
         <v>4</v>
       </c>
     </row>
@@ -3272,7 +3861,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G35">
-        <f>F35*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3294,7 +3883,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G36">
-        <f>F36*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3316,7 +3905,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G37">
-        <f>F37*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3338,7 +3927,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G38">
-        <f>F38*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3360,7 +3949,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G39">
-        <f>F39*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3382,7 +3971,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G40">
-        <f>F40*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3404,7 +3993,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G41">
-        <f>F41*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3426,7 +4015,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G42">
-        <f>F42*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3448,7 +4037,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G43">
-        <f>F43*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3470,7 +4059,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G44">
-        <f>F44*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3492,7 +4081,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G45">
-        <f>F45*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3514,7 +4103,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G46">
-        <f>F46*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3536,7 +4125,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G47">
-        <f>F47*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3558,7 +4147,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G48">
-        <f>F48*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3580,7 +4169,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G49">
-        <f>F49*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3602,7 +4191,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G50">
-        <f>F50*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3624,7 +4213,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G51">
-        <f>F51*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3646,7 +4235,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G52">
-        <f>F52*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3668,7 +4257,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G53">
-        <f>F53*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3690,7 +4279,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G54">
-        <f>F54*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3712,7 +4301,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G55">
-        <f>F55*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3734,7 +4323,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G56">
-        <f>F56*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3756,7 +4345,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G57">
-        <f>F57*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3778,7 +4367,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G58">
-        <f>F58*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3800,7 +4389,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G59">
-        <f>F59*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3822,7 +4411,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G60">
-        <f>F60*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3844,7 +4433,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G61">
-        <f>F61*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3866,7 +4455,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G62">
-        <f>F62*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3888,7 +4477,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G63">
-        <f>F63*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3910,7 +4499,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G64">
-        <f>F64*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3932,7 +4521,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G65">
-        <f>F65*$N$9*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3954,7 +4543,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G66">
-        <f>F66*$N$9*6</f>
+        <f t="shared" ref="G66:G81" si="3">F66*$N$9*6</f>
         <v>4</v>
       </c>
     </row>
@@ -3972,11 +4561,11 @@
         <v>10</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F81" si="1">E67/180</f>
+        <f t="shared" ref="F67:F81" si="4">E67/180</f>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G67">
-        <f>F67*$N$9*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3994,11 +4583,11 @@
         <v>10</v>
       </c>
       <c r="F68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G68">
-        <f>F68*$N$9*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -4016,11 +4605,11 @@
         <v>10</v>
       </c>
       <c r="F69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G69">
-        <f>F69*$N$9*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -4038,11 +4627,11 @@
         <v>10</v>
       </c>
       <c r="F70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G70">
-        <f>F70*$N$9*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -4060,11 +4649,11 @@
         <v>10</v>
       </c>
       <c r="F71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G71">
-        <f>F71*$N$9*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -4082,11 +4671,11 @@
         <v>10</v>
       </c>
       <c r="F72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G72">
-        <f>F72*$N$9*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -4104,11 +4693,11 @@
         <v>10</v>
       </c>
       <c r="F73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G73">
-        <f>F73*$N$9*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -4126,11 +4715,11 @@
         <v>10</v>
       </c>
       <c r="F74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G74">
-        <f>F74*$N$9*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -4148,11 +4737,11 @@
         <v>10</v>
       </c>
       <c r="F75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G75">
-        <f>F75*$N$9*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -4170,11 +4759,11 @@
         <v>10</v>
       </c>
       <c r="F76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G76">
-        <f>F76*$N$9*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -4192,11 +4781,11 @@
         <v>10</v>
       </c>
       <c r="F77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G77">
-        <f>F77*$N$9*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -4214,11 +4803,11 @@
         <v>10</v>
       </c>
       <c r="F78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G78">
-        <f>F78*$N$9*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -4236,11 +4825,11 @@
         <v>10</v>
       </c>
       <c r="F79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G79">
-        <f>F79*$N$9*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -4258,11 +4847,11 @@
         <v>10</v>
       </c>
       <c r="F80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G80">
-        <f>F80*$N$9*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -4280,11 +4869,11 @@
         <v>10</v>
       </c>
       <c r="F81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G81">
-        <f>F81*$N$9*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -4296,28 +4885,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y81"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
-    <col min="2" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="8.7265625" customWidth="1"/>
-    <col min="16" max="16" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="8.7265625" customWidth="1"/>
-    <col min="22" max="22" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.7265625" customWidth="1"/>
-    <col min="24" max="24" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="256" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="8.77734375" customWidth="1"/>
+    <col min="16" max="16" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.77734375" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.77734375" customWidth="1"/>
+    <col min="24" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="256" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -4379,7 +4968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2.0514810709069645E-2</v>
       </c>
@@ -4403,23 +4992,23 @@
         <v>1.2111944242634718</v>
       </c>
       <c r="I2">
-        <f>B2*$Y$4</f>
+        <f t="shared" ref="I2:I33" si="0">B2*$Y$4</f>
         <v>1.1577336666954128</v>
       </c>
       <c r="J2">
-        <f>C2*$Y$5</f>
+        <f t="shared" ref="J2:J33" si="1">C2*$Y$5</f>
         <v>2.7193195749349428</v>
       </c>
       <c r="K2">
-        <f>D2*$Y$6</f>
+        <f t="shared" ref="K2:K33" si="2">D2*$Y$6</f>
         <v>1.2164027137491444E-4</v>
       </c>
       <c r="L2">
-        <f>E2*$Y$7</f>
+        <f t="shared" ref="L2:L33" si="3">E2*$Y$7</f>
         <v>0.17603591156474394</v>
       </c>
       <c r="M2">
-        <f>F2*$Y$8</f>
+        <f t="shared" ref="M2:M33" si="4">F2*$Y$8</f>
         <v>0.22507240160842246</v>
       </c>
       <c r="N2">
@@ -4477,55 +5066,55 @@
         <v>9.619142495654367E-5</v>
       </c>
       <c r="H3">
-        <f>A3*$Y$3</f>
+        <f t="shared" ref="H3:H33" si="5">A3*$Y$3</f>
         <v>1.4452409322469411</v>
       </c>
       <c r="I3">
-        <f>B3*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>1.8069537760742189</v>
       </c>
       <c r="J3">
-        <f>C3*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>1.6055224748928303</v>
       </c>
       <c r="K3">
-        <f>D3*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>7.962904375138555E-5</v>
       </c>
       <c r="L3">
-        <f>E3*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>0.12064275038646156</v>
       </c>
       <c r="M3">
-        <f>F3*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>4.4315389477479665E-3</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="0" xml:space="preserve"> SUM(H3:M3)</f>
+        <f t="shared" ref="N3:N66" si="6" xml:space="preserve"> SUM(H3:M3)</f>
         <v>4.982871101591952</v>
       </c>
       <c r="P3">
-        <f>A3*2*12</f>
+        <f t="shared" ref="P3:P33" si="7">A3*2*12</f>
         <v>0.5874963139215208</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q66" si="1">B3*3*12</f>
+        <f t="shared" ref="Q3:Q66" si="8">B3*3*12</f>
         <v>0.8781092864291562</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R66" si="2">C3*4*12</f>
+        <f t="shared" ref="R3:R66" si="9">C3*4*12</f>
         <v>0.874646223979751</v>
       </c>
       <c r="T3">
-        <f>P3/4</f>
+        <f t="shared" ref="T3:T34" si="10">P3/4</f>
         <v>0.1468740784803802</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U66" si="3">Q3/4</f>
+        <f t="shared" ref="U3:U66" si="11">Q3/4</f>
         <v>0.21952732160728905</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V66" si="4">R3/4</f>
+        <f t="shared" ref="V3:V66" si="12">R3/4</f>
         <v>0.21866155599493775</v>
       </c>
       <c r="X3" s="2" t="s">
@@ -4555,55 +5144,55 @@
         <v>5.0658044194456188E-5</v>
       </c>
       <c r="H4">
-        <f>A4*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>0.33561149586765332</v>
       </c>
       <c r="I4">
-        <f>B4*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>0.41726713896102136</v>
       </c>
       <c r="J4">
-        <f>C4*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>4.1267395843638877</v>
       </c>
       <c r="K4">
-        <f>D4*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>2.206641061929114E-4</v>
       </c>
       <c r="L4">
-        <f>E4*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>0.19887439921042224</v>
       </c>
       <c r="M4">
-        <f>F4*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>2.3338160960385966E-3</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.0810470986052163</v>
       </c>
       <c r="P4">
-        <f>A4*2*12</f>
+        <f t="shared" si="7"/>
         <v>0.13642743734457452</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.20277560748645745</v>
       </c>
       <c r="R4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.2481386908349403</v>
       </c>
       <c r="T4">
-        <f>P4/4</f>
+        <f t="shared" si="10"/>
         <v>3.410685933614363E-2</v>
       </c>
       <c r="U4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>5.0693901871614364E-2</v>
       </c>
       <c r="V4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.56203467270873508</v>
       </c>
       <c r="X4" s="2" t="s">
@@ -4633,55 +5222,55 @@
         <v>1.3033938569192885E-3</v>
       </c>
       <c r="H5">
-        <f>A5*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>0.73011914842935499</v>
       </c>
       <c r="I5">
-        <f>B5*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>0.81950640679662856</v>
       </c>
       <c r="J5">
-        <f>C5*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>3.5715682818791841</v>
       </c>
       <c r="K5">
-        <f>D5*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>1.509248810004161E-4</v>
       </c>
       <c r="L5">
-        <f>E5*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>0.19064897003031298</v>
       </c>
       <c r="M5">
-        <f>F5*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>6.0047354988271621E-2</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.372041087004753</v>
       </c>
       <c r="P5">
-        <f>A5*2*12</f>
+        <f t="shared" si="7"/>
         <v>0.29679640180055078</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.39824825384285406</v>
       </c>
       <c r="R5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.9456960337101448</v>
       </c>
       <c r="T5">
-        <f>P5/4</f>
+        <f t="shared" si="10"/>
         <v>7.4199100450137695E-2</v>
       </c>
       <c r="U5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>9.9562063460713515E-2</v>
       </c>
       <c r="V5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.48642400842753619</v>
       </c>
       <c r="X5" s="2" t="s">
@@ -4711,55 +5300,55 @@
         <v>2.2668595773382179E-4</v>
       </c>
       <c r="H6">
-        <f>A6*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>0.41957862812953084</v>
       </c>
       <c r="I6">
-        <f>B6*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>0.50959441033976727</v>
       </c>
       <c r="J6">
-        <f>C6*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>4.0590454637539111</v>
       </c>
       <c r="K6">
-        <f>D6*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>2.0096121659721452E-4</v>
       </c>
       <c r="L6">
-        <f>E6*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>0.1983972441569129</v>
       </c>
       <c r="M6">
-        <f>F6*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>1.044342207279717E-2</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.1972601296695178</v>
       </c>
       <c r="P6">
-        <f>A6*2*12</f>
+        <f t="shared" si="7"/>
         <v>0.1705604179388337</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.24764307197936858</v>
       </c>
       <c r="R6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.2112607225080891</v>
       </c>
       <c r="T6">
-        <f>P6/4</f>
+        <f t="shared" si="10"/>
         <v>4.2640104484708424E-2</v>
       </c>
       <c r="U6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>6.1910767994842145E-2</v>
       </c>
       <c r="V6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.55281518062702228</v>
       </c>
       <c r="X6" s="2" t="s">
@@ -4789,55 +5378,55 @@
         <v>1.2398734559298824E-4</v>
       </c>
       <c r="H7">
-        <f>A7*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>0.38484448226969209</v>
       </c>
       <c r="I7">
-        <f>B7*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>0.47361572571437233</v>
       </c>
       <c r="J7">
-        <f>C7*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>4.0888996906241202</v>
       </c>
       <c r="K7">
-        <f>D7*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>2.1390839351865179E-4</v>
       </c>
       <c r="L7">
-        <f>E7*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>0.19995799986265564</v>
       </c>
       <c r="M7">
-        <f>F7*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>5.7120970114689683E-3</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.1532439038758282</v>
       </c>
       <c r="P7">
-        <f>A7*2*12</f>
+        <f t="shared" si="7"/>
         <v>0.15644084645109435</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.23015882999078568</v>
       </c>
       <c r="R7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.22752451651297</v>
       </c>
       <c r="T7">
-        <f>P7/4</f>
+        <f t="shared" si="10"/>
         <v>3.9110211612773588E-2</v>
       </c>
       <c r="U7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>5.7539707497696421E-2</v>
       </c>
       <c r="V7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.5568811291282425</v>
       </c>
       <c r="X7" s="2" t="s">
@@ -4867,55 +5456,55 @@
         <v>3.5619392220717443E-4</v>
       </c>
       <c r="H8">
-        <f>A8*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>0.47025636131793525</v>
       </c>
       <c r="I8">
-        <f>B8*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>0.56360192967247869</v>
       </c>
       <c r="J8">
-        <f>C8*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>3.9902343536762097</v>
       </c>
       <c r="K8">
-        <f>D8*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>1.9165313789293174E-4</v>
       </c>
       <c r="L8">
-        <f>E8*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>0.19823367524830279</v>
       </c>
       <c r="M8">
-        <f>F8*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>1.6409853996084526E-2</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.2389278270489044</v>
       </c>
       <c r="P8">
-        <f>A8*2*12</f>
+        <f t="shared" si="7"/>
         <v>0.19116112248696554</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.27388862673068615</v>
       </c>
       <c r="R8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.173774247831779</v>
       </c>
       <c r="T8">
-        <f>P8/4</f>
+        <f t="shared" si="10"/>
         <v>4.7790280621741385E-2</v>
       </c>
       <c r="U8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>6.8472156682671537E-2</v>
       </c>
       <c r="V8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.54344356195794474</v>
       </c>
       <c r="X8" s="2" t="s">
@@ -4945,55 +5534,55 @@
         <v>2.1439219776208623E-3</v>
       </c>
       <c r="H9">
-        <f>A9*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>0.88176342691557552</v>
       </c>
       <c r="I9">
-        <f>B9*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>0.94749827977544454</v>
       </c>
       <c r="J9">
-        <f>C9*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>3.324467456896683</v>
       </c>
       <c r="K9">
-        <f>D9*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>1.340711563230146E-4</v>
       </c>
       <c r="L9">
-        <f>E9*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>0.18550519906237506</v>
       </c>
       <c r="M9">
-        <f>F9*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>9.8770485508993131E-2</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.4381389193153939</v>
       </c>
       <c r="P9">
-        <f>A9*2*12</f>
+        <f t="shared" si="7"/>
         <v>0.35844041744535593</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.46044732818461132</v>
       </c>
       <c r="R9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.8110820330387107</v>
       </c>
       <c r="T9">
-        <f>P9/4</f>
+        <f t="shared" si="10"/>
         <v>8.9610104361338982E-2</v>
       </c>
       <c r="U9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.11511183204615283</v>
       </c>
       <c r="V9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.45277050825967768</v>
       </c>
       <c r="X9" s="2" t="s">
@@ -5023,55 +5612,55 @@
         <v>3.8881230192592963E-3</v>
       </c>
       <c r="H10">
-        <f>A10*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>1.1115993267848121</v>
       </c>
       <c r="I10">
-        <f>B10*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>1.1066589178805764</v>
       </c>
       <c r="J10">
-        <f>C10*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>2.879903627642685</v>
       </c>
       <c r="K10">
-        <f>D10*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>1.2956803317043327E-4</v>
       </c>
       <c r="L10">
-        <f>E10*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>0.17743170151691573</v>
       </c>
       <c r="M10">
-        <f>F10*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>0.17912582749727579</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.4548489693554361</v>
       </c>
       <c r="P10">
-        <f>A10*2*12</f>
+        <f t="shared" si="7"/>
         <v>0.45186964503447646</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.53779321063310959</v>
       </c>
       <c r="R10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.5688954049125965</v>
       </c>
       <c r="T10">
-        <f>P10/4</f>
+        <f t="shared" si="10"/>
         <v>0.11296741125861912</v>
       </c>
       <c r="U10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.1344483026582774</v>
       </c>
       <c r="V10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.39222385122814912</v>
       </c>
     </row>
@@ -5095,55 +5684,55 @@
         <v>1.127207421036166E-5</v>
       </c>
       <c r="H11">
-        <f>A11*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>1.4911845660233225</v>
       </c>
       <c r="I11">
-        <f>B11*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>1.8701848284254152</v>
       </c>
       <c r="J11">
-        <f>C11*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>2.1492006217638013</v>
       </c>
       <c r="K11">
-        <f>D11*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>9.7361177824312084E-5</v>
       </c>
       <c r="L11">
-        <f>E11*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>0.14851704957460449</v>
       </c>
       <c r="M11">
-        <f>F11*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>5.1930445887136164E-4</v>
       </c>
       <c r="N11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.6597037314238383</v>
       </c>
       <c r="P11">
-        <f>A11*2*12</f>
+        <f t="shared" si="7"/>
         <v>0.60617258781435868</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.90883711964518032</v>
       </c>
       <c r="R11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.1708277135928098</v>
       </c>
       <c r="T11">
-        <f>P11/4</f>
+        <f t="shared" si="10"/>
         <v>0.15154314695358967</v>
       </c>
       <c r="U11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.22720927991129508</v>
       </c>
       <c r="V11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.29270692839820245</v>
       </c>
     </row>
@@ -5167,55 +5756,55 @@
         <v>5.0028477984440231E-3</v>
       </c>
       <c r="H12">
-        <f>A12*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>1.2256528842240011</v>
       </c>
       <c r="I12">
-        <f>B12*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>1.1671776840971604</v>
       </c>
       <c r="J12">
-        <f>C12*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>2.6962010736760833</v>
       </c>
       <c r="K12">
-        <f>D12*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>1.2086660880605276E-4</v>
       </c>
       <c r="L12">
-        <f>E12*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>0.17600612145933939</v>
       </c>
       <c r="M12">
-        <f>F12*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>0.23048119807431613</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.4956398281397068</v>
       </c>
       <c r="P12">
-        <f>A12*2*12</f>
+        <f t="shared" si="7"/>
         <v>0.49823287976585418</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.56720297823296129</v>
       </c>
       <c r="R12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.4688191072120305</v>
       </c>
       <c r="T12">
-        <f>P12/4</f>
+        <f t="shared" si="10"/>
         <v>0.12455821994146354</v>
       </c>
       <c r="U12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.14180074455824032</v>
       </c>
       <c r="V12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.36720477680300762</v>
       </c>
     </row>
@@ -5239,55 +5828,55 @@
         <v>7.9153417566218818E-5</v>
       </c>
       <c r="H13">
-        <f>A13*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>1.4420581471144549</v>
       </c>
       <c r="I13">
-        <f>B13*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>1.8040132948934458</v>
       </c>
       <c r="J13">
-        <f>C13*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>1.7016639849035948</v>
       </c>
       <c r="K13">
-        <f>D13*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>8.3346823673402783E-5</v>
       </c>
       <c r="L13">
-        <f>E13*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>0.12013770622746223</v>
       </c>
       <c r="M13">
-        <f>F13*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>3.6465979472757011E-3</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.0716030779099066</v>
       </c>
       <c r="P13">
-        <f>A13*2*12</f>
+        <f t="shared" si="7"/>
         <v>0.58620249882701425</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.87668032689206332</v>
       </c>
       <c r="R13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.92702157842892463</v>
       </c>
       <c r="T13">
-        <f>P13/4</f>
+        <f t="shared" si="10"/>
         <v>0.14655062470675356</v>
       </c>
       <c r="U13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.21917008172301583</v>
       </c>
       <c r="V13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.23175539460723116</v>
       </c>
     </row>
@@ -5311,55 +5900,55 @@
         <v>4.3196298258099485E-4</v>
       </c>
       <c r="H14">
-        <f>A14*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>0.49920298754365899</v>
       </c>
       <c r="I14">
-        <f>B14*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>0.59430174622191723</v>
       </c>
       <c r="J14">
-        <f>C14*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>3.9468555818489262</v>
       </c>
       <c r="K14">
-        <f>D14*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>1.8379294717903684E-4</v>
       </c>
       <c r="L14">
-        <f>E14*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>0.19735207005794511</v>
       </c>
       <c r="M14">
-        <f>F14*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>1.9900534607506432E-2</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.2577967132271324</v>
       </c>
       <c r="P14">
-        <f>A14*2*12</f>
+        <f t="shared" si="7"/>
         <v>0.20292804371693454</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.28880754406032694</v>
       </c>
       <c r="R14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.1501426390732998</v>
       </c>
       <c r="T14">
-        <f>P14/4</f>
+        <f t="shared" si="10"/>
         <v>5.0732010929233635E-2</v>
       </c>
       <c r="U14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>7.2201886015081734E-2</v>
       </c>
       <c r="V14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.53753565976832496</v>
       </c>
     </row>
@@ -5383,55 +5972,55 @@
         <v>3.1146528129560361E-3</v>
       </c>
       <c r="H15">
-        <f>A15*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>2.4770220524846991</v>
       </c>
       <c r="I15">
-        <f>B15*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>2.8779214097765804</v>
       </c>
       <c r="J15">
-        <f>C15*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>1.0057679272771627E-4</v>
       </c>
       <c r="K15">
-        <f>D15*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>7.8446746422863514E-5</v>
       </c>
       <c r="L15">
-        <f>E15*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>9.0149549328451387E-2</v>
       </c>
       <c r="M15">
-        <f>F15*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>0.1434920550928846</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.5887640902217663</v>
       </c>
       <c r="P15">
-        <f>A15*2*12</f>
+        <f t="shared" si="7"/>
         <v>1.0069195335303656</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1.3985579205177767</v>
       </c>
       <c r="R15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>5.479157928646443E-5</v>
       </c>
       <c r="T15">
-        <f>P15/4</f>
+        <f t="shared" si="10"/>
         <v>0.25172988338259139</v>
       </c>
       <c r="U15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.34963948012944418</v>
       </c>
       <c r="V15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>1.3697894821616108E-5</v>
       </c>
     </row>
@@ -5455,55 +6044,55 @@
         <v>8.8651763072292923E-5</v>
       </c>
       <c r="H16">
-        <f>A16*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>0.36153677018106678</v>
       </c>
       <c r="I16">
-        <f>B16*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>0.44697801128630782</v>
       </c>
       <c r="J16">
-        <f>C16*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>4.0947531090539151</v>
       </c>
       <c r="K16">
-        <f>D16*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>2.2071954750825732E-4</v>
       </c>
       <c r="L16">
-        <f>E16*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>0.19936996326968423</v>
       </c>
       <c r="M16">
-        <f>F16*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>4.084186724740535E-3</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.1069427600632231</v>
       </c>
       <c r="P16">
-        <f>A16*2*12</f>
+        <f t="shared" si="7"/>
         <v>0.14696616674027105</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.21721393637023598</v>
       </c>
       <c r="R16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.2307133042173182</v>
       </c>
       <c r="T16">
-        <f>P16/4</f>
+        <f t="shared" si="10"/>
         <v>3.6741541685067762E-2</v>
       </c>
       <c r="U16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>5.4303484092558994E-2</v>
       </c>
       <c r="V16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.55767832605432954</v>
       </c>
     </row>
@@ -5527,55 +6116,55 @@
         <v>7.3669766154965427E-5</v>
       </c>
       <c r="H17">
-        <f>A17*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>1.4408652259763863</v>
       </c>
       <c r="I17">
-        <f>B17*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>1.8028520107121022</v>
       </c>
       <c r="J17">
-        <f>C17*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>1.7496186360584427</v>
       </c>
       <c r="K17">
-        <f>D17*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>8.4283414633063119E-5</v>
       </c>
       <c r="L17">
-        <f>E17*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>0.11954247782445085</v>
       </c>
       <c r="M17">
-        <f>F17*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>3.3939661267592572E-3</v>
       </c>
       <c r="N17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.1163566001127743</v>
       </c>
       <c r="P17">
-        <f>A17*2*12</f>
+        <f t="shared" si="7"/>
         <v>0.58571757153511639</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.87611598792704748</v>
       </c>
       <c r="R17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.95314600534338045</v>
       </c>
       <c r="T17">
-        <f>P17/4</f>
+        <f t="shared" si="10"/>
         <v>0.1464293928837791</v>
       </c>
       <c r="U17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.21902899698176187</v>
       </c>
       <c r="V17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.23828650133584511</v>
       </c>
     </row>
@@ -5599,55 +6188,55 @@
         <v>4.8998467568288576E-3</v>
       </c>
       <c r="H18">
-        <f>A18*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>1.2114333241884971</v>
       </c>
       <c r="I18">
-        <f>B18*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>1.1569659757826263</v>
       </c>
       <c r="J18">
-        <f>C18*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>2.7188095790162836</v>
       </c>
       <c r="K18">
-        <f>D18*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>1.2148564092889028E-4</v>
       </c>
       <c r="L18">
-        <f>E18*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>0.17641487410069409</v>
       </c>
       <c r="M18">
-        <f>F18*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>0.22573594008710549</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.4894811788161366</v>
       </c>
       <c r="P18">
-        <f>A18*2*12</f>
+        <f t="shared" si="7"/>
         <v>0.49245257080833216</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.56224048499155699</v>
       </c>
       <c r="R18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.4811356235703281</v>
       </c>
       <c r="T18">
-        <f>P18/4</f>
+        <f t="shared" si="10"/>
         <v>0.12311314270208304</v>
       </c>
       <c r="U18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.14056012124788925</v>
       </c>
       <c r="V18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.37028390589258203</v>
       </c>
     </row>
@@ -5671,55 +6260,55 @@
         <v>9.828424403642319E-6</v>
       </c>
       <c r="H19">
-        <f>A19*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>1.5306450196326344</v>
       </c>
       <c r="I19">
-        <f>B19*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>1.9198016717429971</v>
       </c>
       <c r="J19">
-        <f>C19*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>2.0366555611854356</v>
       </c>
       <c r="K19">
-        <f>D19*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>9.5067186114383429E-5</v>
       </c>
       <c r="L19">
-        <f>E19*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>0.14143792477232736</v>
       </c>
       <c r="M19">
-        <f>F19*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>4.5279551227580162E-4</v>
       </c>
       <c r="N19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.6290880400317844</v>
       </c>
       <c r="P19">
-        <f>A19*2*12</f>
+        <f t="shared" si="7"/>
         <v>0.6222134226148921</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.93294897654897257</v>
       </c>
       <c r="R19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.1095161382011227</v>
       </c>
       <c r="T19">
-        <f>P19/4</f>
+        <f t="shared" si="10"/>
         <v>0.15555335565372302</v>
       </c>
       <c r="U19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.23323724413724314</v>
       </c>
       <c r="V19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.27737903455028068</v>
       </c>
     </row>
@@ -5743,55 +6332,55 @@
         <v>2.1102336923963649E-4</v>
       </c>
       <c r="H20">
-        <f>A20*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>0.41512493938422368</v>
       </c>
       <c r="I20">
-        <f>B20*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>0.50514709543543368</v>
       </c>
       <c r="J20">
-        <f>C20*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>4.0637162704215513</v>
       </c>
       <c r="K20">
-        <f>D20*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>1.9997572723397646E-4</v>
       </c>
       <c r="L20">
-        <f>E20*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>0.19943259426136314</v>
       </c>
       <c r="M20">
-        <f>F20*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>9.7218466208700526E-3</v>
       </c>
       <c r="N20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.1933427218506765</v>
       </c>
       <c r="P20">
-        <f>A20*2*12</f>
+        <f t="shared" si="7"/>
         <v>0.16874997535944053</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.24548184983363408</v>
       </c>
       <c r="R20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.2138052545708145</v>
       </c>
       <c r="T20">
-        <f>P20/4</f>
+        <f t="shared" si="10"/>
         <v>4.2187493839860132E-2</v>
       </c>
       <c r="U20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>6.137046245840852E-2</v>
       </c>
       <c r="V20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.55345131364270361</v>
       </c>
     </row>
@@ -5815,55 +6404,55 @@
         <v>4.0658589960874849E-4</v>
       </c>
       <c r="H21">
-        <f>A21*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>0.49069952133813588</v>
       </c>
       <c r="I21">
-        <f>B21*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>0.58552570580488572</v>
       </c>
       <c r="J21">
-        <f>C21*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>3.959854024474267</v>
       </c>
       <c r="K21">
-        <f>D21*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>1.8582307763423606E-4</v>
       </c>
       <c r="L21">
-        <f>E21*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>0.19762323376581958</v>
       </c>
       <c r="M21">
-        <f>F21*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>1.8731412394975042E-2</v>
       </c>
       <c r="N21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.2526197208557175</v>
       </c>
       <c r="P21">
-        <f>A21*2*12</f>
+        <f t="shared" si="7"/>
         <v>0.1994713501374536</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.28454272960280624</v>
       </c>
       <c r="R21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.1572238471769927</v>
       </c>
       <c r="T21">
-        <f>P21/4</f>
+        <f t="shared" si="10"/>
         <v>4.9867837534363399E-2</v>
       </c>
       <c r="U21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>7.1135682400701561E-2</v>
       </c>
       <c r="V21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.53930596179424817</v>
       </c>
     </row>
@@ -5887,55 +6476,55 @@
         <v>1.7085187585772778E-4</v>
       </c>
       <c r="H22">
-        <f>A22*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>1.5461667406355404</v>
       </c>
       <c r="I22">
-        <f>B22*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>1.9287897911707292</v>
       </c>
       <c r="J22">
-        <f>C22*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>1.3955828570602824</v>
       </c>
       <c r="K22">
-        <f>D22*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>7.9323908260643263E-5</v>
       </c>
       <c r="L22">
-        <f>E22*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>0.12827588333435347</v>
       </c>
       <c r="M22">
-        <f>F22*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>7.8711459207655189E-3</v>
       </c>
       <c r="N22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.0067657420299323</v>
       </c>
       <c r="P22">
-        <f>A22*2*12</f>
+        <f t="shared" si="7"/>
         <v>0.62852306529900015</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.93731685316072166</v>
       </c>
       <c r="R22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.76027666710808717</v>
       </c>
       <c r="T22">
-        <f>P22/4</f>
+        <f t="shared" si="10"/>
         <v>0.15713076632475004</v>
       </c>
       <c r="U22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.23432921329018042</v>
       </c>
       <c r="V22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.19006916677702179</v>
       </c>
     </row>
@@ -5959,55 +6548,55 @@
         <v>4.1906947923134992E-2</v>
       </c>
       <c r="H23">
-        <f>A23*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>2.4750926508178557</v>
       </c>
       <c r="I23">
-        <f>B23*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>6.173566082630949E-5</v>
       </c>
       <c r="J23">
-        <f>C23*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>9.1428386585722235E-5</v>
       </c>
       <c r="K23">
-        <f>D23*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>7.7566783703078679E-5</v>
       </c>
       <c r="L23">
-        <f>E23*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>0.16771577952412983</v>
       </c>
       <c r="M23">
-        <f>F23*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>1.9306530908188291</v>
       </c>
       <c r="N23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.5736922519919299</v>
       </c>
       <c r="P23">
-        <f>A23*2*12</f>
+        <f t="shared" si="7"/>
         <v>1.0061352239096975</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>3.0001131071100723E-5</v>
       </c>
       <c r="R23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4.9807769335088724E-5</v>
       </c>
       <c r="T23">
-        <f>P23/4</f>
+        <f t="shared" si="10"/>
         <v>0.25153380597742436</v>
       </c>
       <c r="U23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>7.5002827677751807E-6</v>
       </c>
       <c r="V23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>1.2451942333772181E-5</v>
       </c>
     </row>
@@ -6031,55 +6620,55 @@
         <v>1.4810888575283324E-3</v>
       </c>
       <c r="H24">
-        <f>A24*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>0.77304034180598802</v>
       </c>
       <c r="I24">
-        <f>B24*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>0.86019113044039475</v>
       </c>
       <c r="J24">
-        <f>C24*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>3.5022443889798187</v>
       </c>
       <c r="K24">
-        <f>D24*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>1.4869253567079883E-4</v>
       </c>
       <c r="L24">
-        <f>E24*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>0.18866438258984747</v>
       </c>
       <c r="M24">
-        <f>F24*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>6.8233763666330272E-2</v>
       </c>
       <c r="N24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.3925227000180493</v>
       </c>
       <c r="P24">
-        <f>A24*2*12</f>
+        <f t="shared" si="7"/>
         <v>0.31424404138454798</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.41801944783820477</v>
       </c>
       <c r="R24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.907930208501093</v>
       </c>
       <c r="T24">
-        <f>P24/4</f>
+        <f t="shared" si="10"/>
         <v>7.8561010346136995E-2</v>
       </c>
       <c r="U24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.10450486195955119</v>
       </c>
       <c r="V24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.47698255212527324</v>
       </c>
     </row>
@@ -6103,55 +6692,55 @@
         <v>8.1206516415012784E-5</v>
       </c>
       <c r="H25">
-        <f>A25*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>1.4326828358497712</v>
       </c>
       <c r="I25">
-        <f>B25*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>1.792135632138548</v>
       </c>
       <c r="J25">
-        <f>C25*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>1.6949240957472183</v>
       </c>
       <c r="K25">
-        <f>D25*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>8.2999410363221657E-5</v>
       </c>
       <c r="L25">
-        <f>E25*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>0.12430382991866243</v>
       </c>
       <c r="M25">
-        <f>F25*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>3.7411842112396389E-3</v>
       </c>
       <c r="N25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.0478705772758028</v>
       </c>
       <c r="P25">
-        <f>A25*2*12</f>
+        <f t="shared" si="7"/>
         <v>0.58239139668689888</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.87090824455976956</v>
       </c>
       <c r="R25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.92334986489463722</v>
       </c>
       <c r="T25">
-        <f>P25/4</f>
+        <f t="shared" si="10"/>
         <v>0.14559784917172472</v>
       </c>
       <c r="U25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.21772706113994239</v>
       </c>
       <c r="V25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.2308374662236593</v>
       </c>
     </row>
@@ -6175,55 +6764,55 @@
         <v>3.1085850874293117E-3</v>
       </c>
       <c r="H26">
-        <f>A26*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>2.4775140726257763</v>
       </c>
       <c r="I26">
-        <f>B26*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>2.8788605052579386</v>
       </c>
       <c r="J26">
-        <f>C26*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>1.0332347474653807E-4</v>
       </c>
       <c r="K26">
-        <f>D26*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>7.8356926099847166E-5</v>
       </c>
       <c r="L26">
-        <f>E26*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>9.0156896941180412E-2</v>
       </c>
       <c r="M26">
-        <f>F26*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>0.14321251497786838</v>
       </c>
       <c r="N26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.58992567020361</v>
       </c>
       <c r="P26">
-        <f>A26*2*12</f>
+        <f t="shared" si="7"/>
         <v>1.0071195417177954</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1.3990142844126052</v>
       </c>
       <c r="R26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>5.6287899078808621E-5</v>
       </c>
       <c r="T26">
-        <f>P26/4</f>
+        <f t="shared" si="10"/>
         <v>0.25177988542944885</v>
       </c>
       <c r="U26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.34975357110315131</v>
       </c>
       <c r="V26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>1.4071974769702155E-5</v>
       </c>
     </row>
@@ -6247,55 +6836,55 @@
         <v>2.7522070420679104E-3</v>
       </c>
       <c r="H27">
-        <f>A27*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>2.4726560298058846</v>
       </c>
       <c r="I27">
-        <f>B27*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>2.9032590074195386</v>
       </c>
       <c r="J27">
-        <f>C27*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>8.9913334630841216E-5</v>
       </c>
       <c r="K27">
-        <f>D27*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>7.8216762961533169E-5</v>
       </c>
       <c r="L27">
-        <f>E27*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>8.9164706711578112E-2</v>
       </c>
       <c r="M27">
-        <f>F27*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>0.12679417842806864</v>
       </c>
       <c r="N27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.5920420524626637</v>
       </c>
       <c r="P27">
-        <f>A27*2*12</f>
+        <f t="shared" si="7"/>
         <v>1.0051447275633678</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1.410871007925262</v>
       </c>
       <c r="R27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4.8982409060042884E-5</v>
       </c>
       <c r="T27">
-        <f>P27/4</f>
+        <f t="shared" si="10"/>
         <v>0.25128618189084195</v>
       </c>
       <c r="U27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.3527177519813155</v>
       </c>
       <c r="V27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>1.2245602265010721E-5</v>
       </c>
     </row>
@@ -6319,55 +6908,55 @@
         <v>1.4504980154020496E-4</v>
       </c>
       <c r="H28">
-        <f>A28*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>0.35814093613175785</v>
       </c>
       <c r="I28">
-        <f>B28*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>0.43854381844236873</v>
       </c>
       <c r="J28">
-        <f>C28*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>4.125798141786265</v>
       </c>
       <c r="K28">
-        <f>D28*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>2.1465248607186724E-4</v>
       </c>
       <c r="L28">
-        <f>E28*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>0.20000285188998929</v>
       </c>
       <c r="M28">
-        <f>F28*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>6.6824443569572425E-3</v>
       </c>
       <c r="N28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.12938284509341</v>
       </c>
       <c r="P28">
-        <f>A28*2*12</f>
+        <f t="shared" si="7"/>
         <v>0.14558574639502353</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.21311524654326774</v>
       </c>
       <c r="R28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.2476258177929944</v>
       </c>
       <c r="T28">
-        <f>P28/4</f>
+        <f t="shared" si="10"/>
         <v>3.6396436598755882E-2</v>
       </c>
       <c r="U28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>5.3278811635816936E-2</v>
       </c>
       <c r="V28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.5619064544482486</v>
       </c>
     </row>
@@ -6391,55 +6980,55 @@
         <v>8.4699463689167842E-5</v>
       </c>
       <c r="H29">
-        <f>A29*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>0.36627151688729337</v>
       </c>
       <c r="I29">
-        <f>B29*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>0.45321479216328597</v>
       </c>
       <c r="J29">
-        <f>C29*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>4.0925207292367149</v>
       </c>
       <c r="K29">
-        <f>D29*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>2.1865979639619545E-4</v>
       </c>
       <c r="L29">
-        <f>E29*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>0.19827338742693901</v>
       </c>
       <c r="M29">
-        <f>F29*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>3.9021042921599624E-3</v>
       </c>
       <c r="N29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.1144011898027895</v>
       </c>
       <c r="P29">
-        <f>A29*2*12</f>
+        <f t="shared" si="7"/>
         <v>0.14889086052328998</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.2202447694098042</v>
       </c>
       <c r="R29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.2294971626757727</v>
       </c>
       <c r="T29">
-        <f>P29/4</f>
+        <f t="shared" si="10"/>
         <v>3.7222715130822495E-2</v>
       </c>
       <c r="U29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>5.5061192352451049E-2</v>
       </c>
       <c r="V29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.55737429066894317</v>
       </c>
     </row>
@@ -6463,55 +7052,55 @@
         <v>2.9663924143837034E-4</v>
       </c>
       <c r="H30">
-        <f>A30*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>0.4451585965706748</v>
       </c>
       <c r="I30">
-        <f>B30*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>0.53651481548465219</v>
       </c>
       <c r="J30">
-        <f>C30*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>4.0260106385374836</v>
       </c>
       <c r="K30">
-        <f>D30*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>1.9541444544021754E-4</v>
       </c>
       <c r="L30">
-        <f>E30*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>0.1987994318616472</v>
       </c>
       <c r="M30">
-        <f>F30*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>1.3666169853065721E-2</v>
       </c>
       <c r="N30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.2203450667529641</v>
       </c>
       <c r="P30">
-        <f>A30*2*12</f>
+        <f t="shared" si="7"/>
         <v>0.18095877909377026</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.26072534229815714</v>
       </c>
       <c r="R30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.1932642225604271</v>
       </c>
       <c r="T30">
-        <f>P30/4</f>
+        <f t="shared" si="10"/>
         <v>4.5239694773442564E-2</v>
       </c>
       <c r="U30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>6.5181335574539284E-2</v>
       </c>
       <c r="V30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.54831605564010677</v>
       </c>
     </row>
@@ -6535,55 +7124,55 @@
         <v>2.6691247617453111E-3</v>
       </c>
       <c r="H31">
-        <f>A31*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>2.4769947130450087</v>
       </c>
       <c r="I31">
-        <f>B31*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>2.9112291233757941</v>
       </c>
       <c r="J31">
-        <f>C31*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>1.0086317967868777E-4</v>
       </c>
       <c r="K31">
-        <f>D31*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>7.8135868024578847E-5</v>
       </c>
       <c r="L31">
-        <f>E31*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>8.9247810682657955E-2</v>
       </c>
       <c r="M31">
-        <f>F31*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>0.12296657777360648</v>
       </c>
       <c r="N31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.6006172239247709</v>
       </c>
       <c r="P31">
-        <f>A31*2*12</f>
+        <f t="shared" si="7"/>
         <v>1.0069084199369955</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1.4147441744266818</v>
       </c>
       <c r="R31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>5.4947595330575562E-5</v>
       </c>
       <c r="T31">
-        <f>P31/4</f>
+        <f t="shared" si="10"/>
         <v>0.25172710498424888</v>
       </c>
       <c r="U31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.35368604360667044</v>
       </c>
       <c r="V31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>1.373689883264389E-5</v>
       </c>
     </row>
@@ -6607,55 +7196,55 @@
         <v>1.471869585510204E-4</v>
       </c>
       <c r="H32">
-        <f>A32*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>0.37334131407178289</v>
       </c>
       <c r="I32">
-        <f>B32*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>0.45746625668958951</v>
       </c>
       <c r="J32">
-        <f>C32*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>4.1092832877621754</v>
       </c>
       <c r="K32">
-        <f>D32*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>2.1125818953136155E-4</v>
       </c>
       <c r="L32">
-        <f>E32*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>0.20026516340303624</v>
       </c>
       <c r="M32">
-        <f>F32*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>6.7809031804455097E-3</v>
       </c>
       <c r="N32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.1473481832965602</v>
       </c>
       <c r="P32">
-        <f>A32*2*12</f>
+        <f t="shared" si="7"/>
         <v>0.15176476181779794</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.22231081588586965</v>
       </c>
       <c r="R32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.2386289616681925</v>
       </c>
       <c r="T32">
-        <f>P32/4</f>
+        <f t="shared" si="10"/>
         <v>3.7941190454449485E-2</v>
       </c>
       <c r="U32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>5.5577703971467413E-2</v>
       </c>
       <c r="V32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.55965724041704812</v>
       </c>
     </row>
@@ -6679,55 +7268,55 @@
         <v>5.1121068446454811E-3</v>
       </c>
       <c r="H33">
-        <f>A33*$Y$3</f>
+        <f t="shared" si="5"/>
         <v>1.2375399196097754</v>
       </c>
       <c r="I33">
-        <f>B33*$Y$4</f>
+        <f t="shared" si="0"/>
         <v>1.1739975437060157</v>
       </c>
       <c r="J33">
-        <f>C33*$Y$5</f>
+        <f t="shared" si="1"/>
         <v>2.6773046430973788</v>
       </c>
       <c r="K33">
-        <f>D33*$Y$6</f>
+        <f t="shared" si="2"/>
         <v>1.2010977187064474E-4</v>
       </c>
       <c r="L33">
-        <f>E33*$Y$7</f>
+        <f t="shared" si="3"/>
         <v>0.17546015852718208</v>
       </c>
       <c r="M33">
-        <f>F33*$Y$8</f>
+        <f t="shared" si="4"/>
         <v>0.23551476233281732</v>
       </c>
       <c r="N33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.4999371370450394</v>
       </c>
       <c r="P33">
-        <f>A33*2*12</f>
+        <f t="shared" si="7"/>
         <v>0.50306500797145337</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.57051716486793425</v>
       </c>
       <c r="R33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.4585248311051433</v>
       </c>
       <c r="T33">
-        <f>P33/4</f>
+        <f t="shared" si="10"/>
         <v>0.12576625199286334</v>
       </c>
       <c r="U33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.14262929121698356</v>
       </c>
       <c r="V33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.36463120777628583</v>
       </c>
     </row>
@@ -6751,55 +7340,55 @@
         <v>4.1841993864022611E-2</v>
       </c>
       <c r="H34">
-        <f>A34*$Y$3</f>
+        <f t="shared" ref="H34:H65" si="13">A34*$Y$3</f>
         <v>2.4712994340244943</v>
       </c>
       <c r="I34">
-        <f>B34*$Y$4</f>
+        <f t="shared" ref="I34:I65" si="14">B34*$Y$4</f>
         <v>6.076716844012583E-5</v>
       </c>
       <c r="J34">
-        <f>C34*$Y$5</f>
+        <f t="shared" ref="J34:J65" si="15">C34*$Y$5</f>
         <v>8.9674645549532269E-5</v>
       </c>
       <c r="K34">
-        <f>D34*$Y$6</f>
+        <f t="shared" ref="K34:K65" si="16">D34*$Y$6</f>
         <v>7.7814226070327996E-5</v>
       </c>
       <c r="L34">
-        <f>E34*$Y$7</f>
+        <f t="shared" ref="L34:L65" si="17">E34*$Y$7</f>
         <v>0.16745657264701758</v>
       </c>
       <c r="M34">
-        <f>F34*$Y$8</f>
+        <f t="shared" ref="M34:M65" si="18">F34*$Y$8</f>
         <v>1.9276606573155217</v>
       </c>
       <c r="N34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.5666449200270938</v>
       </c>
       <c r="P34">
-        <f>A34*2*12</f>
+        <f t="shared" ref="P34:P65" si="19">A34*2*12</f>
         <v>1.0045932658636156</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>2.9530481423387283E-5</v>
       </c>
       <c r="R34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4.8852377555073759E-5</v>
       </c>
       <c r="T34">
-        <f>P34/4</f>
+        <f t="shared" si="10"/>
         <v>0.25114831646590391</v>
       </c>
       <c r="U34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>7.3826203558468209E-6</v>
       </c>
       <c r="V34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>1.221309438876844E-5</v>
       </c>
     </row>
@@ -6823,55 +7412,55 @@
         <v>1.2400588109941787E-5</v>
       </c>
       <c r="H35">
-        <f>A35*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>1.4850019247786321</v>
       </c>
       <c r="I35">
-        <f>B35*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>1.862343667071285</v>
       </c>
       <c r="J35">
-        <f>C35*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>2.1715568607233147</v>
       </c>
       <c r="K35">
-        <f>D35*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>9.8028858097106721E-5</v>
       </c>
       <c r="L35">
-        <f>E35*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.14950374895467353</v>
       </c>
       <c r="M35">
-        <f>F35*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>5.7129509422501807E-4</v>
       </c>
       <c r="N35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.6690755254802276</v>
       </c>
       <c r="P35">
-        <f>A35*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.60365931901570413</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.90502662006703916</v>
       </c>
       <c r="R35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.1830068018921702</v>
       </c>
       <c r="T35">
-        <f>P35/4</f>
+        <f t="shared" ref="T35:T66" si="20">P35/4</f>
         <v>0.15091482975392603</v>
       </c>
       <c r="U35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.22625665501675979</v>
       </c>
       <c r="V35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.29575170047304256</v>
       </c>
     </row>
@@ -6895,55 +7484,55 @@
         <v>8.1937625813813922E-5</v>
       </c>
       <c r="H36">
-        <f>A36*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>1.450323104995582</v>
       </c>
       <c r="I36">
-        <f>B36*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>1.8142132793037371</v>
       </c>
       <c r="J36">
-        <f>C36*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>1.6712416721183825</v>
       </c>
       <c r="K36">
-        <f>D36*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>8.2886799379761717E-5</v>
       </c>
       <c r="L36">
-        <f>E36*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.11850553758542823</v>
       </c>
       <c r="M36">
-        <f>F36*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>3.7748664212424073E-3</v>
       </c>
       <c r="N36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.058141347223752</v>
       </c>
       <c r="P36">
-        <f>A36*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.58956223780308215</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.8816371227717944</v>
       </c>
       <c r="R36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.91044830622724282</v>
       </c>
       <c r="T36">
-        <f>P36/4</f>
+        <f t="shared" si="20"/>
         <v>0.14739055945077054</v>
       </c>
       <c r="U36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.2204092806929486</v>
       </c>
       <c r="V36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.22761207655681071</v>
       </c>
     </row>
@@ -6967,55 +7556,55 @@
         <v>1.5172668000120689E-3</v>
       </c>
       <c r="H37">
-        <f>A37*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>0.7722045945217868</v>
       </c>
       <c r="I37">
-        <f>B37*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>0.8564610293294288</v>
       </c>
       <c r="J37">
-        <f>C37*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>3.5024776985829504</v>
       </c>
       <c r="K37">
-        <f>D37*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>1.4460176628351164E-4</v>
       </c>
       <c r="L37">
-        <f>E37*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.18871219077339094</v>
       </c>
       <c r="M37">
-        <f>F37*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>6.9900481476556017E-2</v>
       </c>
       <c r="N37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.3899005964503965</v>
       </c>
       <c r="P37">
-        <f>A37*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.31390430671617353</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.4162067637130053</v>
       </c>
       <c r="R37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.9080573094084852</v>
       </c>
       <c r="T37">
-        <f>P37/4</f>
+        <f t="shared" si="20"/>
         <v>7.8476076679043383E-2</v>
       </c>
       <c r="U37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.10405169092825133</v>
       </c>
       <c r="V37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.47701432735212129</v>
       </c>
     </row>
@@ -7039,55 +7628,55 @@
         <v>7.9923341510984084E-5</v>
       </c>
       <c r="H38">
-        <f>A38*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>1.4450363468960483</v>
       </c>
       <c r="I38">
-        <f>B38*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>1.8076994091318064</v>
       </c>
       <c r="J38">
-        <f>C38*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>1.6936986410016228</v>
       </c>
       <c r="K38">
-        <f>D38*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>8.3205037425273059E-5</v>
       </c>
       <c r="L38">
-        <f>E38*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.11944259200831597</v>
       </c>
       <c r="M38">
-        <f>F38*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>3.6820683434110367E-3</v>
       </c>
       <c r="N38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.0696422624186299</v>
       </c>
       <c r="P38">
-        <f>A38*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.58741314914473508</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.87847163510724946</v>
       </c>
       <c r="R38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.92268226952761201</v>
       </c>
       <c r="T38">
-        <f>P38/4</f>
+        <f t="shared" si="20"/>
         <v>0.14685328728618377</v>
       </c>
       <c r="U38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.21961790877681237</v>
       </c>
       <c r="V38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.230670567381903</v>
       </c>
     </row>
@@ -7111,55 +7700,55 @@
         <v>3.0768421222023061E-4</v>
       </c>
       <c r="H39">
-        <f>A39*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>1.7640734156610323</v>
       </c>
       <c r="I39">
-        <f>B39*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>2.1928351748650852</v>
       </c>
       <c r="J39">
-        <f>C39*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>1.075866154747821</v>
       </c>
       <c r="K39">
-        <f>D39*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>7.7417280187255702E-5</v>
       </c>
       <c r="L39">
-        <f>E39*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>9.4708438577129808E-2</v>
       </c>
       <c r="M39">
-        <f>F39*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>1.4175011656986024E-2</v>
       </c>
       <c r="N39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.1417356127882421</v>
       </c>
       <c r="P39">
-        <f>A39*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.71710301449635461</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1.0656326443728816</v>
       </c>
       <c r="R39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.58610345508904105</v>
       </c>
       <c r="T39">
-        <f>P39/4</f>
+        <f t="shared" si="20"/>
         <v>0.17927575362408865</v>
       </c>
       <c r="U39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.26640816109322041</v>
       </c>
       <c r="V39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.14652586377226026</v>
       </c>
     </row>
@@ -7183,55 +7772,55 @@
         <v>8.9221199668254524E-5</v>
       </c>
       <c r="H40">
-        <f>A40*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>0.35755161665046536</v>
       </c>
       <c r="I40">
-        <f>B40*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>0.44193474500165902</v>
       </c>
       <c r="J40">
-        <f>C40*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>4.0979475191235606</v>
       </c>
       <c r="K40">
-        <f>D40*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>2.2096809332941691E-4</v>
       </c>
       <c r="L40">
-        <f>E40*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.19957788937343757</v>
       </c>
       <c r="M40">
-        <f>F40*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>4.1104206687164859E-3</v>
       </c>
       <c r="N40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.1013431589111686</v>
       </c>
       <c r="P40">
-        <f>A40*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.14534618563027046</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.2147631050224045</v>
       </c>
       <c r="R40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.2324535344220964</v>
       </c>
       <c r="T40">
-        <f>P40/4</f>
+        <f t="shared" si="20"/>
         <v>3.6336546407567616E-2</v>
       </c>
       <c r="U40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>5.3690776255601126E-2</v>
       </c>
       <c r="V40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.55811338360552409</v>
       </c>
     </row>
@@ -7255,55 +7844,55 @@
         <v>1.0273198958130449E-4</v>
       </c>
       <c r="H41">
-        <f>A41*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>1.5786432112536777</v>
       </c>
       <c r="I41">
-        <f>B41*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>1.9739237879973131</v>
       </c>
       <c r="J41">
-        <f>C41*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>1.3636694018484097</v>
       </c>
       <c r="K41">
-        <f>D41*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>8.0088576510166222E-5</v>
       </c>
       <c r="L41">
-        <f>E41*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.11393274621685755</v>
       </c>
       <c r="M41">
-        <f>F41*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>4.7328627600106976E-3</v>
       </c>
       <c r="N41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.0349820986527787</v>
       </c>
       <c r="P41">
-        <f>A41*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.64172488262344618</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.95925022094901813</v>
       </c>
       <c r="R41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.74289105991060789</v>
       </c>
       <c r="T41">
-        <f>P41/4</f>
+        <f t="shared" si="20"/>
         <v>0.16043122065586155</v>
       </c>
       <c r="U41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.23981255523725453</v>
       </c>
       <c r="V41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.18572276497765197</v>
       </c>
     </row>
@@ -7327,55 +7916,55 @@
         <v>4.1796862003343822E-2</v>
       </c>
       <c r="H42">
-        <f>A42*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>2.4686287250520129</v>
       </c>
       <c r="I42">
-        <f>B42*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>6.1660067429145278E-5</v>
       </c>
       <c r="J42">
-        <f>C42*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>9.0630179366913904E-5</v>
       </c>
       <c r="K42">
-        <f>D42*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>7.7295734887028019E-5</v>
       </c>
       <c r="L42">
-        <f>E42*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.16727577781712086</v>
       </c>
       <c r="M42">
-        <f>F42*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>1.9255814324940499</v>
       </c>
       <c r="N42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.5617155213448672</v>
       </c>
       <c r="P42">
-        <f>A42*2*12</f>
+        <f t="shared" si="19"/>
         <v>1.0035076118097614</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>2.9964395618915096E-5</v>
       </c>
       <c r="R42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4.9372927132128788E-5</v>
       </c>
       <c r="T42">
-        <f>P42/4</f>
+        <f t="shared" si="20"/>
         <v>0.25087690295244036</v>
       </c>
       <c r="U42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>7.491098904728774E-6</v>
       </c>
       <c r="V42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>1.2343231783032197E-5</v>
       </c>
     </row>
@@ -7399,55 +7988,55 @@
         <v>1.0062422614620868E-4</v>
       </c>
       <c r="H43">
-        <f>A43*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>1.5142160421896584</v>
       </c>
       <c r="I43">
-        <f>B43*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>1.8932349070615524</v>
       </c>
       <c r="J43">
-        <f>C43*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>1.4602719589462247</v>
       </c>
       <c r="K43">
-        <f>D43*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>8.0302082000028314E-5</v>
       </c>
       <c r="L43">
-        <f>E43*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.11369439886769689</v>
       </c>
       <c r="M43">
-        <f>F43*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>4.6357580985558339E-3</v>
       </c>
       <c r="N43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.9861333672456887</v>
       </c>
       <c r="P43">
-        <f>A43*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.61553497649986111</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.92003856174697485</v>
       </c>
       <c r="R43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.79551758063124267</v>
       </c>
       <c r="T43">
-        <f>P43/4</f>
+        <f t="shared" si="20"/>
         <v>0.15388374412496528</v>
       </c>
       <c r="U43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.23000964043674371</v>
       </c>
       <c r="V43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.19887939515781067</v>
       </c>
     </row>
@@ -7471,55 +8060,55 @@
         <v>1.0036809740287076E-3</v>
       </c>
       <c r="H44">
-        <f>A44*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>0.66192945587494545</v>
       </c>
       <c r="I44">
-        <f>B44*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>0.75615526665310617</v>
       </c>
       <c r="J44">
-        <f>C44*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>3.6831491482915144</v>
       </c>
       <c r="K44">
-        <f>D44*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>1.598685791194682E-4</v>
       </c>
       <c r="L44">
-        <f>E44*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.19289871598316671</v>
       </c>
       <c r="M44">
-        <f>F44*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>4.6239582473502558E-2</v>
       </c>
       <c r="N44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.3405320378553549</v>
       </c>
       <c r="P44">
-        <f>A44*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.26907701458331118</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.36746206262839931</v>
       </c>
       <c r="R44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.0064823415956496</v>
       </c>
       <c r="T44">
-        <f>P44/4</f>
+        <f t="shared" si="20"/>
         <v>6.7269253645827795E-2</v>
       </c>
       <c r="U44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>9.1865515657099828E-2</v>
       </c>
       <c r="V44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.50162058539891241</v>
       </c>
     </row>
@@ -7543,55 +8132,55 @@
         <v>1.4703163947469937E-4</v>
       </c>
       <c r="H45">
-        <f>A45*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>1.4392048383026361</v>
       </c>
       <c r="I45">
-        <f>B45*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>1.7960956620776687</v>
       </c>
       <c r="J45">
-        <f>C45*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>1.5593439947521095</v>
       </c>
       <c r="K45">
-        <f>D45*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>7.7915003072600661E-5</v>
       </c>
       <c r="L45">
-        <f>E45*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.11625170564641829</v>
       </c>
       <c r="M45">
-        <f>F45*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>6.7737476305994001E-3</v>
       </c>
       <c r="N45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.9177478634125036</v>
       </c>
       <c r="P45">
-        <f>A45*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.58504261719619355</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.87283266515653446</v>
       </c>
       <c r="R45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.84948940810465623</v>
       </c>
       <c r="T45">
-        <f>P45/4</f>
+        <f t="shared" si="20"/>
         <v>0.14626065429904839</v>
       </c>
       <c r="U45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.21820816628913361</v>
       </c>
       <c r="V45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.21237235202616406</v>
       </c>
     </row>
@@ -7615,55 +8204,55 @@
         <v>1.7451516815636029E-4</v>
       </c>
       <c r="H46">
-        <f>A46*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>0.39182617160448513</v>
       </c>
       <c r="I46">
-        <f>B46*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>0.4786332681214816</v>
       </c>
       <c r="J46">
-        <f>C46*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>4.0836470586719313</v>
       </c>
       <c r="K46">
-        <f>D46*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>2.114880012841298E-4</v>
       </c>
       <c r="L46">
-        <f>E46*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.19638026478584952</v>
       </c>
       <c r="M46">
-        <f>F46*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>8.0399137969635187E-3</v>
       </c>
       <c r="N46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.1587381649819957</v>
       </c>
       <c r="P46">
-        <f>A46*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.15927893154653866</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.23259716053419732</v>
       </c>
       <c r="R46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.2246630214079302</v>
       </c>
       <c r="T46">
-        <f>P46/4</f>
+        <f t="shared" si="20"/>
         <v>3.9819732886634665E-2</v>
       </c>
       <c r="U46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>5.8149290133549331E-2</v>
       </c>
       <c r="V46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.55616575535198254</v>
       </c>
     </row>
@@ -7687,55 +8276,55 @@
         <v>6.8733709326462633E-3</v>
       </c>
       <c r="H47">
-        <f>A47*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>1.3839613762243592</v>
       </c>
       <c r="I47">
-        <f>B47*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>1.2271903197442171</v>
       </c>
       <c r="J47">
-        <f>C47*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>2.4421269701403316</v>
       </c>
       <c r="K47">
-        <f>D47*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>1.1227579301912063E-4</v>
       </c>
       <c r="L47">
-        <f>E47*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.17111290797120243</v>
       </c>
       <c r="M47">
-        <f>F47*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>0.31665619886701335</v>
       </c>
       <c r="N47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.5411600487401431</v>
       </c>
       <c r="P47">
-        <f>A47*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.56258592529445495</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.59636678605280535</v>
       </c>
       <c r="R47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.3304062486293942</v>
       </c>
       <c r="T47">
-        <f>P47/4</f>
+        <f t="shared" si="20"/>
         <v>0.14064648132361374</v>
       </c>
       <c r="U47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.14909169651320134</v>
       </c>
       <c r="V47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.33260156215734854</v>
       </c>
     </row>
@@ -7759,55 +8348,55 @@
         <v>4.2072135622926769E-2</v>
       </c>
       <c r="H48">
-        <f>A48*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>2.4850162488690035</v>
       </c>
       <c r="I48">
-        <f>B48*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>2.6645134166649042E-4</v>
       </c>
       <c r="J48">
-        <f>C48*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>9.3363530634174655E-5</v>
       </c>
       <c r="K48">
-        <f>D48*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>7.8246936514652729E-5</v>
       </c>
       <c r="L48">
-        <f>E48*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.16837687537462501</v>
       </c>
       <c r="M48">
-        <f>F48*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>1.9382632881482362</v>
       </c>
       <c r="N48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.59209447420068</v>
       </c>
       <c r="P48">
-        <f>A48*2*12</f>
+        <f t="shared" si="19"/>
         <v>1.0101692068573187</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1.2948499325045432E-4</v>
       </c>
       <c r="R48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>5.0861984683241215E-5</v>
       </c>
       <c r="T48">
-        <f>P48/4</f>
+        <f t="shared" si="20"/>
         <v>0.25254230171432968</v>
       </c>
       <c r="U48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>3.237124831261358E-5</v>
       </c>
       <c r="V48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>1.2715496170810304E-5</v>
       </c>
     </row>
@@ -7831,55 +8420,55 @@
         <v>1.1797480864986435E-3</v>
       </c>
       <c r="H49">
-        <f>A49*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>0.70579388179806757</v>
       </c>
       <c r="I49">
-        <f>B49*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>0.79815464422747329</v>
       </c>
       <c r="J49">
-        <f>C49*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>3.611913637103858</v>
       </c>
       <c r="K49">
-        <f>D49*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>1.5495743141790905E-4</v>
       </c>
       <c r="L49">
-        <f>E49*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.19110111274006164</v>
       </c>
       <c r="M49">
-        <f>F49*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>5.4350994344992506E-2</v>
       </c>
       <c r="N49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.3614692276458706</v>
       </c>
       <c r="P49">
-        <f>A49*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.28690808203173479</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.38787212732436605</v>
       </c>
       <c r="R49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.9676751172509952</v>
       </c>
       <c r="T49">
-        <f>P49/4</f>
+        <f t="shared" si="20"/>
         <v>7.1727020507933698E-2</v>
       </c>
       <c r="U49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>9.6968031831091511E-2</v>
       </c>
       <c r="V49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.4919187793127488</v>
       </c>
     </row>
@@ -7903,55 +8492,55 @@
         <v>1.0942379045308769E-3</v>
       </c>
       <c r="H50">
-        <f>A50*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>0.68226717932005732</v>
       </c>
       <c r="I50">
-        <f>B50*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>0.77496140419420267</v>
       </c>
       <c r="J50">
-        <f>C50*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>3.6495437115803884</v>
       </c>
       <c r="K50">
-        <f>D50*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>1.5555684675975712E-4</v>
       </c>
       <c r="L50">
-        <f>E50*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.19112242588377734</v>
       </c>
       <c r="M50">
-        <f>F50*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>5.0411540261737497E-2</v>
       </c>
       <c r="N50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.348461818086923</v>
       </c>
       <c r="P50">
-        <f>A50*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.27734438183742172</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.37660111434923454</v>
       </c>
       <c r="R50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.988174987582098</v>
       </c>
       <c r="T50">
-        <f>P50/4</f>
+        <f t="shared" si="20"/>
         <v>6.9336095459355429E-2</v>
       </c>
       <c r="U50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>9.4150278587308636E-2</v>
       </c>
       <c r="V50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.4970437468955245</v>
       </c>
     </row>
@@ -7975,55 +8564,55 @@
         <v>1.8727689567137981E-4</v>
       </c>
       <c r="H51">
-        <f>A51*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>0.4047315230702197</v>
       </c>
       <c r="I51">
-        <f>B51*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>0.49388667345407877</v>
       </c>
       <c r="J51">
-        <f>C51*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>4.0756523041750032</v>
       </c>
       <c r="K51">
-        <f>D51*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>2.0752142924640115E-4</v>
       </c>
       <c r="L51">
-        <f>E51*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.19903462030498903</v>
       </c>
       <c r="M51">
-        <f>F51*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>8.6278465835804685E-3</v>
       </c>
       <c r="N51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.182140489017117</v>
       </c>
       <c r="P51">
-        <f>A51*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.16452500937813808</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.2400097225208806</v>
       </c>
       <c r="R51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.2203076903915577</v>
       </c>
       <c r="T51">
-        <f>P51/4</f>
+        <f t="shared" si="20"/>
         <v>4.1131252344534519E-2</v>
       </c>
       <c r="U51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>6.0002430630220149E-2</v>
       </c>
       <c r="V51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.55507692259788943</v>
       </c>
     </row>
@@ -8047,55 +8636,55 @@
         <v>5.8336128868085486E-5</v>
       </c>
       <c r="H52">
-        <f>A52*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>0.347360260229372</v>
       </c>
       <c r="I52">
-        <f>B52*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>0.4314395527941598</v>
       </c>
       <c r="J52">
-        <f>C52*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>4.1138439463221879</v>
       </c>
       <c r="K52">
-        <f>D52*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>2.2055591772049933E-4</v>
       </c>
       <c r="L52">
-        <f>E52*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.20126664572501604</v>
       </c>
       <c r="M52">
-        <f>F52*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>2.6875454569526983E-3</v>
       </c>
       <c r="N52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.096818506445409</v>
       </c>
       <c r="P52">
-        <f>A52*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.14120335781681789</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.20966284962999127</v>
       </c>
       <c r="R52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.2411134879521626</v>
       </c>
       <c r="T52">
-        <f>P52/4</f>
+        <f t="shared" si="20"/>
         <v>3.5300839454204473E-2</v>
       </c>
       <c r="U52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>5.2415712407497816E-2</v>
       </c>
       <c r="V52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.56027837198804065</v>
       </c>
     </row>
@@ -8119,55 +8708,55 @@
         <v>7.6592557725170573E-5</v>
       </c>
       <c r="H53">
-        <f>A53*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>1.435877389434641</v>
       </c>
       <c r="I53">
-        <f>B53*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>1.7964145576871642</v>
       </c>
       <c r="J53">
-        <f>C53*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>1.7290861751690183</v>
       </c>
       <c r="K53">
-        <f>D53*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>8.3822488524464369E-5</v>
       </c>
       <c r="L53">
-        <f>E53*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.12302275807465141</v>
       </c>
       <c r="M53">
-        <f>F53*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>3.5286191343986083E-3</v>
       </c>
       <c r="N53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.0880133219883978</v>
       </c>
       <c r="P53">
-        <f>A53*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.58368999570513869</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.87298763602507967</v>
       </c>
       <c r="R53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.94196046314961834</v>
       </c>
       <c r="T53">
-        <f>P53/4</f>
+        <f t="shared" si="20"/>
         <v>0.14592249892628467</v>
       </c>
       <c r="U53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.21824690900626992</v>
       </c>
       <c r="V53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.23549011578740459</v>
       </c>
     </row>
@@ -8191,55 +8780,55 @@
         <v>4.6006350513779078E-4</v>
       </c>
       <c r="H54">
-        <f>A54*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>0.51027254641432662</v>
       </c>
       <c r="I54">
-        <f>B54*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>0.60612590275157729</v>
       </c>
       <c r="J54">
-        <f>C54*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>3.9296733007157143</v>
       </c>
       <c r="K54">
-        <f>D54*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>1.7838971541012618E-4</v>
       </c>
       <c r="L54">
-        <f>E54*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.19699228397790741</v>
       </c>
       <c r="M54">
-        <f>F54*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>2.1195125681698023E-2</v>
       </c>
       <c r="N54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.264437549256634</v>
       </c>
       <c r="P54">
-        <f>A54*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.20742786439606772</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.29455362444731081</v>
       </c>
       <c r="R54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.1407821862938858</v>
       </c>
       <c r="T54">
-        <f>P54/4</f>
+        <f t="shared" si="20"/>
         <v>5.1856966099016931E-2</v>
       </c>
       <c r="U54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>7.3638406111827703E-2</v>
       </c>
       <c r="V54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.53519554657347146</v>
       </c>
     </row>
@@ -8263,55 +8852,55 @@
         <v>8.4310939500279727E-4</v>
       </c>
       <c r="H55">
-        <f>A55*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>0.54912071442972799</v>
       </c>
       <c r="I55">
-        <f>B55*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>0.62651642043411782</v>
       </c>
       <c r="J55">
-        <f>C55*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>3.8573862052171659</v>
       </c>
       <c r="K55">
-        <f>D55*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>1.6189771858921373E-4</v>
       </c>
       <c r="L55">
-        <f>E55*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.1375792731281511</v>
       </c>
       <c r="M55">
-        <f>F55*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>3.884204982777887E-2</v>
       </c>
       <c r="N55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.2096065607555317</v>
       </c>
       <c r="P55">
-        <f>A55*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.22321980261371055</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.30446262332111562</v>
       </c>
       <c r="R55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.1014020866011118</v>
       </c>
       <c r="T55">
-        <f>P55/4</f>
+        <f t="shared" si="20"/>
         <v>5.5804950653427637E-2</v>
       </c>
       <c r="U55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>7.6115655830278905E-2</v>
       </c>
       <c r="V55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.52535052165027796</v>
       </c>
     </row>
@@ -8335,55 +8924,55 @@
         <v>5.1717827057158345E-3</v>
       </c>
       <c r="H56">
-        <f>A56*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>1.4894336353528332</v>
       </c>
       <c r="I56">
-        <f>B56*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>1.485348744306576</v>
       </c>
       <c r="J56">
-        <f>C56*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>2.2444762326739101</v>
       </c>
       <c r="K56">
-        <f>D56*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>1.0353819675401115E-4</v>
       </c>
       <c r="L56">
-        <f>E56*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.16339482275873363</v>
       </c>
       <c r="M56">
-        <f>F56*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>0.23826402925232851</v>
       </c>
       <c r="N56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.6210210025411351</v>
       </c>
       <c r="P56">
-        <f>A56*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.60546082737920048</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.72182174399347643</v>
       </c>
       <c r="R56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.2227313490903153</v>
       </c>
       <c r="T56">
-        <f>P56/4</f>
+        <f t="shared" si="20"/>
         <v>0.15136520684480012</v>
       </c>
       <c r="U56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.18045543599836911</v>
       </c>
       <c r="V56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.30568283727257883</v>
       </c>
     </row>
@@ -8407,55 +8996,55 @@
         <v>8.5354290254805552E-5</v>
       </c>
       <c r="H57">
-        <f>A57*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>0.3785274712986561</v>
       </c>
       <c r="I57">
-        <f>B57*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>0.46854656385553001</v>
       </c>
       <c r="J57">
-        <f>C57*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>4.0795996051574512</v>
       </c>
       <c r="K57">
-        <f>D57*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>2.1786807263857814E-4</v>
       </c>
       <c r="L57">
-        <f>E57*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.2000927128352365</v>
       </c>
       <c r="M57">
-        <f>F57*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>3.9322721520388916E-3</v>
       </c>
       <c r="N57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.1309164933715516</v>
       </c>
       <c r="P57">
-        <f>A57*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.15387295581246185</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.22769541440063557</v>
       </c>
       <c r="R57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.2224580756731092</v>
       </c>
       <c r="T57">
-        <f>P57/4</f>
+        <f t="shared" si="20"/>
         <v>3.8468238953115463E-2</v>
       </c>
       <c r="U57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>5.6923853600158891E-2</v>
       </c>
       <c r="V57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.55561451891827729</v>
       </c>
     </row>
@@ -8479,55 +9068,55 @@
         <v>8.8153409092824365E-6</v>
       </c>
       <c r="H58">
-        <f>A58*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>1.577797376676467</v>
       </c>
       <c r="I58">
-        <f>B58*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>1.9790418043869271</v>
       </c>
       <c r="J58">
-        <f>C58*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>1.9112770899303682</v>
       </c>
       <c r="K58">
-        <f>D58*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>9.3347066365383023E-5</v>
       </c>
       <c r="L58">
-        <f>E58*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.1393018121778844</v>
       </c>
       <c r="M58">
-        <f>F58*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>4.0612275569064187E-4</v>
       </c>
       <c r="N58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.6079175529937038</v>
       </c>
       <c r="P58">
-        <f>A58*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.64138104742945812</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.96173737794181136</v>
       </c>
       <c r="R58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.0412132597509667</v>
       </c>
       <c r="T58">
-        <f>P58/4</f>
+        <f t="shared" si="20"/>
         <v>0.16034526185736453</v>
       </c>
       <c r="U58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.24043434448545284</v>
       </c>
       <c r="V58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.26030331493774167</v>
       </c>
     </row>
@@ -8551,55 +9140,55 @@
         <v>2.2698378744902086E-4</v>
       </c>
       <c r="H59">
-        <f>A59*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>0.42304559098145283</v>
       </c>
       <c r="I59">
-        <f>B59*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>0.51392258229204457</v>
       </c>
       <c r="J59">
-        <f>C59*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>4.0538287031998559</v>
       </c>
       <c r="K59">
-        <f>D59*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>2.0305253341367747E-4</v>
       </c>
       <c r="L59">
-        <f>E59*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.19967257470022051</v>
       </c>
       <c r="M59">
-        <f>F59*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>1.0457143087776391E-2</v>
       </c>
       <c r="N59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.2011296467947634</v>
       </c>
       <c r="P59">
-        <f>A59*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.17196975243148488</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.24974639528231105</v>
       </c>
       <c r="R59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.208418769192976</v>
       </c>
       <c r="T59">
-        <f>P59/4</f>
+        <f t="shared" si="20"/>
         <v>4.299243810787122E-2</v>
       </c>
       <c r="U59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>6.2436598820577761E-2</v>
       </c>
       <c r="V59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.55210469229824399</v>
       </c>
     </row>
@@ -8623,55 +9212,55 @@
         <v>1.0261105575361395E-5</v>
       </c>
       <c r="H60">
-        <f>A60*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>1.5842208829344508</v>
       </c>
       <c r="I60">
-        <f>B60*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>1.9870118531431975</v>
       </c>
       <c r="J60">
-        <f>C60*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>1.8424885509777134</v>
       </c>
       <c r="K60">
-        <f>D60*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>9.1774276826650313E-5</v>
       </c>
       <c r="L60">
-        <f>E60*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.13886098786041257</v>
       </c>
       <c r="M60">
-        <f>F60*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>4.7272913385689943E-4</v>
       </c>
       <c r="N60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.5531467783264574</v>
       </c>
       <c r="P60">
-        <f>A60*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.64399222883514262</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.96561051178665103</v>
       </c>
       <c r="R60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.0037390812272187</v>
       </c>
       <c r="T60">
-        <f>P60/4</f>
+        <f t="shared" si="20"/>
         <v>0.16099805720878566</v>
       </c>
       <c r="U60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.24140262794666276</v>
       </c>
       <c r="V60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.25093477030680467</v>
       </c>
     </row>
@@ -8695,55 +9284,55 @@
         <v>8.045775362053061E-5</v>
       </c>
       <c r="H61">
-        <f>A61*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>1.4371911022028923</v>
       </c>
       <c r="I61">
-        <f>B61*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>1.7978558197738566</v>
       </c>
       <c r="J61">
-        <f>C61*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>1.6685126109271433</v>
       </c>
       <c r="K61">
-        <f>D61*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>8.2456872943437491E-5</v>
       </c>
       <c r="L61">
-        <f>E61*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.11796922240317778</v>
       </c>
       <c r="M61">
-        <f>F61*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>3.7066887092978454E-3</v>
       </c>
       <c r="N61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.0253179008893119</v>
       </c>
       <c r="P61">
-        <f>A61*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.58422402528572859</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.87368803336742484</v>
       </c>
       <c r="R61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.90896158579619657</v>
       </c>
       <c r="T61">
-        <f>P61/4</f>
+        <f t="shared" si="20"/>
         <v>0.14605600632143215</v>
       </c>
       <c r="U61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.21842200834185621</v>
       </c>
       <c r="V61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.22724039644904914</v>
       </c>
     </row>
@@ -8767,55 +9356,55 @@
         <v>1.66107394404398E-4</v>
       </c>
       <c r="H62">
-        <f>A62*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>0.35226148417850411</v>
       </c>
       <c r="I62">
-        <f>B62*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>0.42961278657346824</v>
       </c>
       <c r="J62">
-        <f>C62*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>4.1427101544622644</v>
       </c>
       <c r="K62">
-        <f>D62*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>2.1113170477634236E-4</v>
       </c>
       <c r="L62">
-        <f>E62*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.20255175433449168</v>
       </c>
       <c r="M62">
-        <f>F62*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>7.6525676602106161E-3</v>
       </c>
       <c r="N62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.1349998789137148</v>
       </c>
       <c r="P62">
-        <f>A62*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.1431957252758147</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.20877511226572432</v>
       </c>
       <c r="R62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.2568390354578218</v>
       </c>
       <c r="T62">
-        <f>P62/4</f>
+        <f t="shared" si="20"/>
         <v>3.5798931318953675E-2</v>
       </c>
       <c r="U62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>5.2193778066431079E-2</v>
       </c>
       <c r="V62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.56420975886445546</v>
       </c>
     </row>
@@ -8839,55 +9428,55 @@
         <v>4.7255572840582257E-3</v>
       </c>
       <c r="H63">
-        <f>A63*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>1.1954395288398538</v>
       </c>
       <c r="I63">
-        <f>B63*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>1.1498112637099176</v>
       </c>
       <c r="J63">
-        <f>C63*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>2.7447038932411134</v>
       </c>
       <c r="K63">
-        <f>D63*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>1.2290487100448256E-4</v>
       </c>
       <c r="L63">
-        <f>E63*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.1763549685072861</v>
       </c>
       <c r="M63">
-        <f>F63*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>0.21770642407656246</v>
       </c>
       <c r="N63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.484138983245737</v>
       </c>
       <c r="P63">
-        <f>A63*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.48595102798368045</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.55876357307717384</v>
       </c>
       <c r="R63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.4952421617929117</v>
       </c>
       <c r="T63">
-        <f>P63/4</f>
+        <f t="shared" si="20"/>
         <v>0.12148775699592011</v>
       </c>
       <c r="U63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.13969089326929346</v>
       </c>
       <c r="V63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.37381054044822792</v>
       </c>
     </row>
@@ -8911,55 +9500,55 @@
         <v>8.1442974497120108E-5</v>
       </c>
       <c r="H64">
-        <f>A64*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>1.4578236809665184</v>
       </c>
       <c r="I64">
-        <f>B64*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>1.8236536831090011</v>
       </c>
       <c r="J64">
-        <f>C64*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>1.6528889426692144</v>
       </c>
       <c r="K64">
-        <f>D64*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>8.2804636612435661E-5</v>
       </c>
       <c r="L64">
-        <f>E64*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.12008073327807828</v>
       </c>
       <c r="M64">
-        <f>F64*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>3.7520778350823235E-3</v>
       </c>
       <c r="N64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.0582819224945066</v>
       </c>
       <c r="P64">
-        <f>A64*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.5926112524254139</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.88622479200761384</v>
       </c>
       <c r="R64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.90045022413031772</v>
       </c>
       <c r="T64">
-        <f>P64/4</f>
+        <f t="shared" si="20"/>
         <v>0.14815281310635348</v>
       </c>
       <c r="U64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.22155619800190346</v>
       </c>
       <c r="V64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.22511255603257943</v>
       </c>
     </row>
@@ -8983,55 +9572,55 @@
         <v>4.7295146918281891E-3</v>
       </c>
       <c r="H65">
-        <f>A65*$Y$3</f>
+        <f t="shared" si="13"/>
         <v>1.1962933751451463</v>
       </c>
       <c r="I65">
-        <f>B65*$Y$4</f>
+        <f t="shared" si="14"/>
         <v>1.1505920614976768</v>
       </c>
       <c r="J65">
-        <f>C65*$Y$5</f>
+        <f t="shared" si="15"/>
         <v>2.7431194748894061</v>
       </c>
       <c r="K65">
-        <f>D65*$Y$6</f>
+        <f t="shared" si="16"/>
         <v>1.2300280591725368E-4</v>
       </c>
       <c r="L65">
-        <f>E65*$Y$7</f>
+        <f t="shared" si="17"/>
         <v>0.17609453801544978</v>
       </c>
       <c r="M65">
-        <f>F65*$Y$8</f>
+        <f t="shared" si="18"/>
         <v>0.21788874185252469</v>
       </c>
       <c r="N65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.4841111942061218</v>
       </c>
       <c r="P65">
-        <f>A65*2*12</f>
+        <f t="shared" si="19"/>
         <v>0.48629811997770173</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.55914301044703518</v>
       </c>
       <c r="R65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.4943790125376402</v>
       </c>
       <c r="T65">
-        <f>P65/4</f>
+        <f t="shared" si="20"/>
         <v>0.12157452999442543</v>
       </c>
       <c r="U65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.1397857526117588</v>
       </c>
       <c r="V65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.37359475313441004</v>
       </c>
     </row>
@@ -9055,55 +9644,55 @@
         <v>8.0142408350480714E-5</v>
       </c>
       <c r="H66">
-        <f>A66*$Y$3</f>
+        <f t="shared" ref="H66:H81" si="21">A66*$Y$3</f>
         <v>0.35674633078491264</v>
       </c>
       <c r="I66">
-        <f>B66*$Y$4</f>
+        <f t="shared" ref="I66:I81" si="22">B66*$Y$4</f>
         <v>0.44160306364127966</v>
       </c>
       <c r="J66">
-        <f>C66*$Y$5</f>
+        <f t="shared" ref="J66:J81" si="23">C66*$Y$5</f>
         <v>4.1116420076528861</v>
       </c>
       <c r="K66">
-        <f>D66*$Y$6</f>
+        <f t="shared" ref="K66:K81" si="24">D66*$Y$6</f>
         <v>2.174639126761007E-4</v>
       </c>
       <c r="L66">
-        <f>E66*$Y$7</f>
+        <f t="shared" ref="L66:L81" si="25">E66*$Y$7</f>
         <v>0.19833313012292794</v>
       </c>
       <c r="M66">
-        <f>F66*$Y$8</f>
+        <f t="shared" ref="M66:M81" si="26">F66*$Y$8</f>
         <v>3.6921607527066465E-3</v>
       </c>
       <c r="N66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5.1122341568673892</v>
       </c>
       <c r="P66">
-        <f>A66*2*12</f>
+        <f t="shared" ref="P66:P81" si="27">A66*2*12</f>
         <v>0.14501883365240353</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.21460192077599985</v>
       </c>
       <c r="R66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.2399139299436901</v>
       </c>
       <c r="T66">
-        <f>P66/4</f>
+        <f t="shared" si="20"/>
         <v>3.6254708413100883E-2</v>
       </c>
       <c r="U66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>5.3650480193999962E-2</v>
       </c>
       <c r="V66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0.55997848248592252</v>
       </c>
     </row>
@@ -9127,55 +9716,55 @@
         <v>1.2628801371423012E-5</v>
       </c>
       <c r="H67">
-        <f>A67*$Y$3</f>
+        <f t="shared" si="21"/>
         <v>1.4870157199016523</v>
       </c>
       <c r="I67">
-        <f>B67*$Y$4</f>
+        <f t="shared" si="22"/>
         <v>1.8648552859352661</v>
       </c>
       <c r="J67">
-        <f>C67*$Y$5</f>
+        <f t="shared" si="23"/>
         <v>2.1622954692713456</v>
       </c>
       <c r="K67">
-        <f>D67*$Y$6</f>
+        <f t="shared" si="24"/>
         <v>9.765558904641642E-5</v>
       </c>
       <c r="L67">
-        <f>E67*$Y$7</f>
+        <f t="shared" si="25"/>
         <v>0.14917332165463887</v>
       </c>
       <c r="M67">
-        <f>F67*$Y$8</f>
+        <f t="shared" si="26"/>
         <v>5.8180887918145817E-4</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N81" si="5" xml:space="preserve"> SUM(H67:M67)</f>
+        <f t="shared" ref="N67:N81" si="28" xml:space="preserve"> SUM(H67:M67)</f>
         <v>5.6640192612311315</v>
       </c>
       <c r="P67">
-        <f>A67*2*12</f>
+        <f t="shared" si="27"/>
         <v>0.60447793491937085</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q81" si="6">B67*3*12</f>
+        <f t="shared" ref="Q67:Q81" si="29">B67*3*12</f>
         <v>0.90624716919100412</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R81" si="7">C67*4*12</f>
+        <f t="shared" ref="R67:R81" si="30">C67*4*12</f>
         <v>1.1779614405291636</v>
       </c>
       <c r="T67">
-        <f>P67/4</f>
+        <f t="shared" ref="T67:T81" si="31">P67/4</f>
         <v>0.15111948372984271</v>
       </c>
       <c r="U67">
-        <f t="shared" ref="U67:U81" si="8">Q67/4</f>
+        <f t="shared" ref="U67:U81" si="32">Q67/4</f>
         <v>0.22656179229775103</v>
       </c>
       <c r="V67">
-        <f t="shared" ref="V67:V81" si="9">R67/4</f>
+        <f t="shared" ref="V67:V81" si="33">R67/4</f>
         <v>0.29449036013229091</v>
       </c>
     </row>
@@ -9199,55 +9788,55 @@
         <v>6.7000153856719847E-5</v>
       </c>
       <c r="H68">
-        <f>A68*$Y$3</f>
+        <f t="shared" si="21"/>
         <v>1.4410949926721253</v>
       </c>
       <c r="I68">
-        <f>B68*$Y$4</f>
+        <f t="shared" si="22"/>
         <v>1.8035710146036104</v>
       </c>
       <c r="J68">
-        <f>C68*$Y$5</f>
+        <f t="shared" si="23"/>
         <v>1.7727003675662558</v>
       </c>
       <c r="K68">
-        <f>D68*$Y$6</f>
+        <f t="shared" si="24"/>
         <v>8.4865486483633388E-5</v>
       </c>
       <c r="L68">
-        <f>E68*$Y$7</f>
+        <f t="shared" si="25"/>
         <v>0.11645597421115053</v>
       </c>
       <c r="M68">
-        <f>F68*$Y$8</f>
+        <f t="shared" si="26"/>
         <v>3.0866970881790832E-3</v>
       </c>
       <c r="N68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>5.1369939116278038</v>
       </c>
       <c r="P68">
-        <f>A68*2*12</f>
+        <f t="shared" si="27"/>
         <v>0.58581097263094517</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>0.87646539586568539</v>
       </c>
       <c r="R68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>0.96572032281443976</v>
       </c>
       <c r="T68">
-        <f>P68/4</f>
+        <f t="shared" si="31"/>
         <v>0.14645274315773629</v>
       </c>
       <c r="U68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>0.21911634896642135</v>
       </c>
       <c r="V68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>0.24143008070360994</v>
       </c>
     </row>
@@ -9271,55 +9860,55 @@
         <v>1.7112149953121875E-3</v>
       </c>
       <c r="H69">
-        <f>A69*$Y$3</f>
+        <f t="shared" si="21"/>
         <v>1.4765149784311273</v>
       </c>
       <c r="I69">
-        <f>B69*$Y$4</f>
+        <f t="shared" si="22"/>
         <v>1.7256946302689997</v>
       </c>
       <c r="J69">
-        <f>C69*$Y$5</f>
+        <f t="shared" si="23"/>
         <v>2.225244980655654</v>
       </c>
       <c r="K69">
-        <f>D69*$Y$6</f>
+        <f t="shared" si="24"/>
         <v>1.001962780820801E-4</v>
       </c>
       <c r="L69">
-        <f>E69*$Y$7</f>
+        <f t="shared" si="25"/>
         <v>0.15478288936157239</v>
       </c>
       <c r="M69">
-        <f>F69*$Y$8</f>
+        <f t="shared" si="26"/>
         <v>7.8835674834032476E-2</v>
       </c>
       <c r="N69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>5.6611733498294692</v>
       </c>
       <c r="P69">
-        <f>A69*2*12</f>
+        <f t="shared" si="27"/>
         <v>0.60020934082566157</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>0.83862050067068028</v>
       </c>
       <c r="R69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>1.2122546711096516</v>
       </c>
       <c r="T69">
-        <f>P69/4</f>
+        <f t="shared" si="31"/>
         <v>0.15005233520641539</v>
       </c>
       <c r="U69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>0.20965512516767007</v>
       </c>
       <c r="V69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>0.30306366777741289</v>
       </c>
     </row>
@@ -9343,55 +9932,55 @@
         <v>4.1912605994867846E-2</v>
       </c>
       <c r="H70">
-        <f>A70*$Y$3</f>
+        <f t="shared" si="21"/>
         <v>2.4754189038284595</v>
       </c>
       <c r="I70">
-        <f>B70*$Y$4</f>
+        <f t="shared" si="22"/>
         <v>6.1568471275745578E-5</v>
       </c>
       <c r="J70">
-        <f>C70*$Y$5</f>
+        <f t="shared" si="23"/>
         <v>8.8736036582293535E-5</v>
       </c>
       <c r="K70">
-        <f>D70*$Y$6</f>
+        <f t="shared" si="24"/>
         <v>7.8077500439898225E-5</v>
       </c>
       <c r="L70">
-        <f>E70*$Y$7</f>
+        <f t="shared" si="25"/>
         <v>0.16773576189001163</v>
       </c>
       <c r="M70">
-        <f>F70*$Y$8</f>
+        <f t="shared" si="26"/>
         <v>1.9309137581835616</v>
       </c>
       <c r="N70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>4.5742968059103308</v>
       </c>
       <c r="P70">
-        <f>A70*2*12</f>
+        <f t="shared" si="27"/>
         <v>1.0062678470847397</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>2.9919883449336404E-5</v>
       </c>
       <c r="R70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>4.8341048189196343E-5</v>
       </c>
       <c r="T70">
-        <f>P70/4</f>
+        <f t="shared" si="31"/>
         <v>0.25156696177118493</v>
       </c>
       <c r="U70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>7.4799708623341011E-6</v>
       </c>
       <c r="V70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>1.2085262047299086E-5</v>
       </c>
     </row>
@@ -9415,55 +10004,55 @@
         <v>1.0289588818999681E-5</v>
       </c>
       <c r="H71">
-        <f>A71*$Y$3</f>
+        <f t="shared" si="21"/>
         <v>1.5741219890230327</v>
       </c>
       <c r="I71">
-        <f>B71*$Y$4</f>
+        <f t="shared" si="22"/>
         <v>1.9743394269098407</v>
       </c>
       <c r="J71">
-        <f>C71*$Y$5</f>
+        <f t="shared" si="23"/>
         <v>1.8681019761413136</v>
       </c>
       <c r="K71">
-        <f>D71*$Y$6</f>
+        <f t="shared" si="24"/>
         <v>9.2092792820902298E-5</v>
       </c>
       <c r="L71">
-        <f>E71*$Y$7</f>
+        <f t="shared" si="25"/>
         <v>0.13932227836137256</v>
       </c>
       <c r="M71">
-        <f>F71*$Y$8</f>
+        <f t="shared" si="26"/>
         <v>4.7404135689131535E-4</v>
       </c>
       <c r="N71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>5.5564518045852713</v>
       </c>
       <c r="P71">
-        <f>A71*2*12</f>
+        <f t="shared" si="27"/>
         <v>0.63988698740773686</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>0.95945220530175845</v>
       </c>
       <c r="R71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>1.0176925985107599</v>
       </c>
       <c r="T71">
-        <f>P71/4</f>
+        <f t="shared" si="31"/>
         <v>0.15997174685193422</v>
       </c>
       <c r="U71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>0.23986305132543961</v>
       </c>
       <c r="V71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>0.25442314962768997</v>
       </c>
     </row>
@@ -9487,55 +10076,55 @@
         <v>3.6856559475107716E-3</v>
       </c>
       <c r="H72">
-        <f>A72*$Y$3</f>
+        <f t="shared" si="21"/>
         <v>2.4783115839211156</v>
       </c>
       <c r="I72">
-        <f>B72*$Y$4</f>
+        <f t="shared" si="22"/>
         <v>2.8527738941078455</v>
       </c>
       <c r="J72">
-        <f>C72*$Y$5</f>
+        <f t="shared" si="23"/>
         <v>9.0059775747568043E-5</v>
       </c>
       <c r="K72">
-        <f>D72*$Y$6</f>
+        <f t="shared" si="24"/>
         <v>7.8191288624561924E-5</v>
       </c>
       <c r="L72">
-        <f>E72*$Y$7</f>
+        <f t="shared" si="25"/>
         <v>9.0893516867826776E-2</v>
       </c>
       <c r="M72">
-        <f>F72*$Y$8</f>
+        <f t="shared" si="26"/>
         <v>0.16979816950182125</v>
       </c>
       <c r="N72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>5.5919454154629813</v>
       </c>
       <c r="P72">
-        <f>A72*2*12</f>
+        <f t="shared" si="27"/>
         <v>1.0074437333012665</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>1.3863372055599681</v>
       </c>
       <c r="R72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>4.9062186311238978E-5</v>
       </c>
       <c r="T72">
-        <f>P72/4</f>
+        <f t="shared" si="31"/>
         <v>0.25186093332531662</v>
       </c>
       <c r="U72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>0.34658430138999202</v>
       </c>
       <c r="V72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>1.2265546577809744E-5</v>
       </c>
     </row>
@@ -9559,55 +10148,55 @@
         <v>2.0440257556626309E-4</v>
       </c>
       <c r="H73">
-        <f>A73*$Y$3</f>
+        <f t="shared" si="21"/>
         <v>0.4119775473237427</v>
       </c>
       <c r="I73">
-        <f>B73*$Y$4</f>
+        <f t="shared" si="22"/>
         <v>0.50170652448897546</v>
       </c>
       <c r="J73">
-        <f>C73*$Y$5</f>
+        <f t="shared" si="23"/>
         <v>4.0675180403674016</v>
       </c>
       <c r="K73">
-        <f>D73*$Y$6</f>
+        <f t="shared" si="24"/>
         <v>2.0094684035175319E-4</v>
       </c>
       <c r="L73">
-        <f>E73*$Y$7</f>
+        <f t="shared" si="25"/>
         <v>0.19721332915541645</v>
       </c>
       <c r="M73">
-        <f>F73*$Y$8</f>
+        <f t="shared" si="26"/>
         <v>9.4168266563377408E-3</v>
       </c>
       <c r="N73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>5.1880332148322257</v>
       </c>
       <c r="P73">
-        <f>A73*2*12</f>
+        <f t="shared" si="27"/>
         <v>0.16747054769257835</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>0.24380986611235311</v>
       </c>
       <c r="R73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>2.2158763583887784</v>
       </c>
       <c r="T73">
-        <f>P73/4</f>
+        <f t="shared" si="31"/>
         <v>4.1867636923144588E-2</v>
       </c>
       <c r="U73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>6.0952466528088278E-2</v>
       </c>
       <c r="V73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>0.5539690895971946</v>
       </c>
     </row>
@@ -9631,55 +10220,55 @@
         <v>2.0831889416054051E-4</v>
       </c>
       <c r="H74">
-        <f>A74*$Y$3</f>
+        <f t="shared" si="21"/>
         <v>0.41126235936998695</v>
       </c>
       <c r="I74">
-        <f>B74*$Y$4</f>
+        <f t="shared" si="22"/>
         <v>0.50051979691683712</v>
       </c>
       <c r="J74">
-        <f>C74*$Y$5</f>
+        <f t="shared" si="23"/>
         <v>4.0691423723218136</v>
       </c>
       <c r="K74">
-        <f>D74*$Y$6</f>
+        <f t="shared" si="24"/>
         <v>2.0051630044654991E-4</v>
       </c>
       <c r="L74">
-        <f>E74*$Y$7</f>
+        <f t="shared" si="25"/>
         <v>0.19880061764268747</v>
       </c>
       <c r="M74">
-        <f>F74*$Y$8</f>
+        <f t="shared" si="26"/>
         <v>9.5972514539761009E-3</v>
       </c>
       <c r="N74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>5.1895229140057477</v>
       </c>
       <c r="P74">
-        <f>A74*2*12</f>
+        <f t="shared" si="27"/>
         <v>0.16717982088210853</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>0.24323316264857092</v>
       </c>
       <c r="R74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>2.2167612515202255</v>
       </c>
       <c r="T74">
-        <f>P74/4</f>
+        <f t="shared" si="31"/>
         <v>4.1794955220527133E-2</v>
       </c>
       <c r="U74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>6.080829066214273E-2</v>
       </c>
       <c r="V74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>0.55419031288005638</v>
       </c>
     </row>
@@ -9703,55 +10292,55 @@
         <v>2.191968746154986E-4</v>
       </c>
       <c r="H75">
-        <f>A75*$Y$3</f>
+        <f t="shared" si="21"/>
         <v>1.8222282448425311</v>
       </c>
       <c r="I75">
-        <f>B75*$Y$4</f>
+        <f t="shared" si="22"/>
         <v>2.2718762500589551</v>
       </c>
       <c r="J75">
-        <f>C75*$Y$5</f>
+        <f t="shared" si="23"/>
         <v>0.99305153847884475</v>
       </c>
       <c r="K75">
-        <f>D75*$Y$6</f>
+        <f t="shared" si="24"/>
         <v>7.9270323014434582E-5</v>
       </c>
       <c r="L75">
-        <f>E75*$Y$7</f>
+        <f t="shared" si="25"/>
         <v>0.10979389032559343</v>
       </c>
       <c r="M75">
-        <f>F75*$Y$8</f>
+        <f t="shared" si="26"/>
         <v>1.009840001353602E-2</v>
       </c>
       <c r="N75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>5.2071275940424755</v>
       </c>
       <c r="P75">
-        <f>A75*2*12</f>
+        <f t="shared" si="27"/>
         <v>0.7407431889603785</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>1.1040435340459287</v>
       </c>
       <c r="R75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>0.54098824023362324</v>
       </c>
       <c r="T75">
-        <f>P75/4</f>
+        <f t="shared" si="31"/>
         <v>0.18518579724009462</v>
       </c>
       <c r="U75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>0.27601088351148217</v>
       </c>
       <c r="V75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>0.13524706005840581</v>
       </c>
     </row>
@@ -9775,55 +10364,55 @@
         <v>3.928099100068784E-3</v>
       </c>
       <c r="H76">
-        <f>A76*$Y$3</f>
+        <f t="shared" si="21"/>
         <v>1.1103612414485591</v>
       </c>
       <c r="I76">
-        <f>B76*$Y$4</f>
+        <f t="shared" si="22"/>
         <v>1.1021448773751459</v>
       </c>
       <c r="J76">
-        <f>C76*$Y$5</f>
+        <f t="shared" si="23"/>
         <v>2.8813125500159211</v>
       </c>
       <c r="K76">
-        <f>D76*$Y$6</f>
+        <f t="shared" si="24"/>
         <v>1.2914444595784727E-4</v>
       </c>
       <c r="L76">
-        <f>E76*$Y$7</f>
+        <f t="shared" si="25"/>
         <v>0.17704161959329298</v>
       </c>
       <c r="M76">
-        <f>F76*$Y$8</f>
+        <f t="shared" si="26"/>
         <v>0.18096752554016887</v>
       </c>
       <c r="N76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>5.4519569584190455</v>
       </c>
       <c r="P76">
-        <f>A76*2*12</f>
+        <f t="shared" si="27"/>
         <v>0.45136635831242239</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>0.53559956243932572</v>
       </c>
       <c r="R76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>1.569662948595667</v>
       </c>
       <c r="T76">
-        <f>P76/4</f>
+        <f t="shared" si="31"/>
         <v>0.1128415895781056</v>
       </c>
       <c r="U76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>0.13389989060983143</v>
       </c>
       <c r="V76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>0.39241573714891675</v>
       </c>
     </row>
@@ -9847,55 +10436,55 @@
         <v>2.8179943777016572E-4</v>
       </c>
       <c r="H77">
-        <f>A77*$Y$3</f>
+        <f t="shared" si="21"/>
         <v>0.4396889867937156</v>
       </c>
       <c r="I77">
-        <f>B77*$Y$4</f>
+        <f t="shared" si="22"/>
         <v>0.53074959076923778</v>
       </c>
       <c r="J77">
-        <f>C77*$Y$5</f>
+        <f t="shared" si="23"/>
         <v>4.0334256389024334</v>
       </c>
       <c r="K77">
-        <f>D77*$Y$6</f>
+        <f t="shared" si="24"/>
         <v>1.971672551824548E-4</v>
       </c>
       <c r="L77">
-        <f>E77*$Y$7</f>
+        <f t="shared" si="25"/>
         <v>0.19853239429585717</v>
       </c>
       <c r="M77">
-        <f>F77*$Y$8</f>
+        <f t="shared" si="26"/>
         <v>1.2982500098071535E-2</v>
       </c>
       <c r="N77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>5.2155762781144981</v>
       </c>
       <c r="P77">
-        <f>A77*2*12</f>
+        <f t="shared" si="27"/>
         <v>0.17873536048525024</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>0.25792366722047189</v>
       </c>
       <c r="R77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>2.1973037188436817</v>
       </c>
       <c r="T77">
-        <f>P77/4</f>
+        <f t="shared" si="31"/>
         <v>4.468384012131256E-2</v>
       </c>
       <c r="U77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>6.4480916805117972E-2</v>
       </c>
       <c r="V77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>0.54932592971092042</v>
       </c>
     </row>
@@ -9919,55 +10508,55 @@
         <v>4.1993885700425587E-2</v>
       </c>
       <c r="H78">
-        <f>A78*$Y$3</f>
+        <f t="shared" si="21"/>
         <v>2.480237612377767</v>
       </c>
       <c r="I78">
-        <f>B78*$Y$4</f>
+        <f t="shared" si="22"/>
         <v>6.4004150331584508E-5</v>
       </c>
       <c r="J78">
-        <f>C78*$Y$5</f>
+        <f t="shared" si="23"/>
         <v>8.657419709033002E-5</v>
       </c>
       <c r="K78">
-        <f>D78*$Y$6</f>
+        <f t="shared" si="24"/>
         <v>7.7972453482993864E-5</v>
       </c>
       <c r="L78">
-        <f>E78*$Y$7</f>
+        <f t="shared" si="25"/>
         <v>0.16806163107794655</v>
       </c>
       <c r="M78">
-        <f>F78*$Y$8</f>
+        <f t="shared" si="26"/>
         <v>1.9346583142186069</v>
       </c>
       <c r="N78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>4.5831861084752257</v>
       </c>
       <c r="P78">
-        <f>A78*2*12</f>
+        <f t="shared" si="27"/>
         <v>1.0082266716982793</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>3.1103528778847765E-5</v>
       </c>
       <c r="R78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>4.7163335153056874E-5</v>
       </c>
       <c r="T78">
-        <f>P78/4</f>
+        <f t="shared" si="31"/>
         <v>0.25205666792456982</v>
       </c>
       <c r="U78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>7.7758821947119413E-6</v>
       </c>
       <c r="V78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>1.1790833788264218E-5</v>
       </c>
     </row>
@@ -9991,55 +10580,55 @@
         <v>2.1989664896959931E-3</v>
       </c>
       <c r="H79">
-        <f>A79*$Y$3</f>
+        <f t="shared" si="21"/>
         <v>0.89336272263453431</v>
       </c>
       <c r="I79">
-        <f>B79*$Y$4</f>
+        <f t="shared" si="22"/>
         <v>0.95797396200962937</v>
       </c>
       <c r="J79">
-        <f>C79*$Y$5</f>
+        <f t="shared" si="23"/>
         <v>3.3061521137010708</v>
       </c>
       <c r="K79">
-        <f>D79*$Y$6</f>
+        <f t="shared" si="24"/>
         <v>1.3355986402486335E-4</v>
       </c>
       <c r="L79">
-        <f>E79*$Y$7</f>
+        <f t="shared" si="25"/>
         <v>0.18533931762631545</v>
       </c>
       <c r="M79">
-        <f>F79*$Y$8</f>
+        <f t="shared" si="26"/>
         <v>0.1013063861802944</v>
       </c>
       <c r="N79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>5.444268062015869</v>
       </c>
       <c r="P79">
-        <f>A79*2*12</f>
+        <f t="shared" si="27"/>
         <v>0.36315557830672129</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>0.46553810248848082</v>
       </c>
       <c r="R79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>1.8011043179849211</v>
       </c>
       <c r="T79">
-        <f>P79/4</f>
+        <f t="shared" si="31"/>
         <v>9.0788894576680323E-2</v>
       </c>
       <c r="U79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>0.11638452562212021</v>
       </c>
       <c r="V79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>0.45027607949623027</v>
       </c>
     </row>
@@ -10063,55 +10652,55 @@
         <v>9.9768862297900561E-5</v>
       </c>
       <c r="H80">
-        <f>A80*$Y$3</f>
+        <f t="shared" si="21"/>
         <v>1.4964652904329194</v>
       </c>
       <c r="I80">
-        <f>B80*$Y$4</f>
+        <f t="shared" si="22"/>
         <v>1.871024238642389</v>
       </c>
       <c r="J80">
-        <f>C80*$Y$5</f>
+        <f t="shared" si="23"/>
         <v>1.485874509949251</v>
       </c>
       <c r="K80">
-        <f>D80*$Y$6</f>
+        <f t="shared" si="24"/>
         <v>8.0279329521322197E-5</v>
       </c>
       <c r="L80">
-        <f>E80*$Y$7</f>
+        <f t="shared" si="25"/>
         <v>0.11373114175367374</v>
       </c>
       <c r="M80">
-        <f>F80*$Y$8</f>
+        <f t="shared" si="26"/>
         <v>4.5963514860642785E-3</v>
       </c>
       <c r="N80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>4.9717718115938192</v>
       </c>
       <c r="P80">
-        <f>A80*2*12</f>
+        <f t="shared" si="27"/>
         <v>0.60831922375321934</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>0.90924504037697085</v>
       </c>
       <c r="R80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>0.80946517395941497</v>
       </c>
       <c r="T80">
-        <f>P80/4</f>
+        <f t="shared" si="31"/>
         <v>0.15207980593830484</v>
       </c>
       <c r="U80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>0.22731126009424271</v>
       </c>
       <c r="V80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>0.20236629348985374</v>
       </c>
     </row>
@@ -10135,55 +10724,55 @@
         <v>9.6121540178401531E-5</v>
       </c>
       <c r="H81">
-        <f>A81*$Y$3</f>
+        <f t="shared" si="21"/>
         <v>1.5579949670078879</v>
       </c>
       <c r="I81">
-        <f>B81*$Y$4</f>
+        <f t="shared" si="22"/>
         <v>1.9484491847834791</v>
       </c>
       <c r="J81">
-        <f>C81*$Y$5</f>
+        <f t="shared" si="23"/>
         <v>1.4016588612589271</v>
       </c>
       <c r="K81">
-        <f>D81*$Y$6</f>
+        <f t="shared" si="24"/>
         <v>8.0944945212538423E-5</v>
       </c>
       <c r="L81">
-        <f>E81*$Y$7</f>
+        <f t="shared" si="25"/>
         <v>0.11704677416075787</v>
       </c>
       <c r="M81">
-        <f>F81*$Y$8</f>
+        <f t="shared" si="26"/>
         <v>4.4283193560189582E-3</v>
       </c>
       <c r="N81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>5.029659051512283</v>
       </c>
       <c r="P81">
-        <f>A81*2*12</f>
+        <f t="shared" si="27"/>
         <v>0.63333128740158051</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>0.94687055416043797</v>
       </c>
       <c r="R81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>0.76358671365825104</v>
       </c>
       <c r="T81">
-        <f>P81/4</f>
+        <f t="shared" si="31"/>
         <v>0.15833282185039513</v>
       </c>
       <c r="U81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="32"/>
         <v>0.23671763854010949</v>
       </c>
       <c r="V81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>0.19089667841456276</v>
       </c>
     </row>
@@ -10195,14 +10784,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A75"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -10585,21 +11174,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
         <v>27</v>
@@ -11430,21 +12022,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:T89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -11452,16 +12045,28 @@
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6.0851100235128701</v>
       </c>
@@ -11469,7 +12074,7 @@
         <v>0.14065338823243406</v>
       </c>
       <c r="D2">
-        <f>A2*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" ref="D2:D33" si="0">A2*0.064697803368621 + -0.241457731709085</f>
         <v>0.15223552006857541</v>
       </c>
       <c r="F2">
@@ -11480,8 +12085,23 @@
         <f t="array" ref="G2">di</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q2">
+        <f>P2^2</f>
+        <v>16.809999999999999</v>
+      </c>
+      <c r="R2">
+        <f>P2^3</f>
+        <v>68.920999999999992</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2:T33" si="1" xml:space="preserve"> 0.00033338*P2 + 0.00204513*Q2 + 0.00031815*R2 -0.0116062188300338</f>
+        <v>4.6066490619966191E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7.6016224672107899</v>
       </c>
@@ -11489,11 +12109,26 @@
         <v>0.21952732160728905</v>
       </c>
       <c r="D3">
-        <f>A3*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>0.2503505439570104</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="2">P3^2</f>
+        <v>17.222500000000004</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="3">P3^3</f>
+        <v>71.473375000000019</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="1"/>
+        <v>4.7738813851216221E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.0005718740867247</v>
       </c>
@@ -11501,11 +12136,26 @@
         <v>5.0693901871614364E-2</v>
       </c>
       <c r="D4">
-        <f>A4*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>1.7370480762613577E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>4.2</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>17.64</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="3"/>
+        <v>74.088000000000008</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="1"/>
+        <v>4.94411675699662E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.5116628631591986</v>
       </c>
@@ -11513,11 +12163,26 @@
         <v>9.9562063460713515E-2</v>
       </c>
       <c r="D5">
-        <f>A5*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>0.1151347484457195</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>4.25</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>18.0625</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>76.765625</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>5.1173790388716202E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.7337794540855649</v>
       </c>
@@ -11525,14 +12190,29 @@
         <v>6.1910767994842145E-2</v>
       </c>
       <c r="D6">
-        <f>A6*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>6.4807400601760962E-2</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="P6">
+        <v>4.3</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>18.489999999999998</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>79.506999999999991</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>5.2936920919966206E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4.4616929738439888</v>
       </c>
@@ -11540,17 +12220,32 @@
         <v>5.7539707497696421E-2</v>
       </c>
       <c r="D7">
-        <f>A7*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>4.7204003003831291E-2</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>18.922499999999996</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>82.312874999999977</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>5.4730797776216179E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4.9313010568883549</v>
       </c>
@@ -11558,11 +12253,26 @@
         <v>6.8472156682671537E-2</v>
       </c>
       <c r="D8">
-        <f>A8*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>7.7586614420950745E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>19.360000000000003</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>85.184000000000026</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>5.6555659569966214E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5.7278036352152384</v>
       </c>
@@ -11570,11 +12280,26 @@
         <v>0.11511183204615283</v>
       </c>
       <c r="D9">
-        <f>A9*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>0.12911858161614312</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>4.45</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>19.802500000000002</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>88.121125000000006</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>5.8411744913716208E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5.9838373711533492</v>
       </c>
@@ -11582,11 +12307,26 @@
         <v>0.1344483026582774</v>
       </c>
       <c r="D10">
-        <f>A10*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>0.14568340191960041</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>4.5000000000000098</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>20.250000000000089</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>91.125000000000597</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>6.0299292419966573E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6.6940836700167843</v>
       </c>
@@ -11594,11 +12334,26 @@
         <v>0.22720927991129508</v>
       </c>
       <c r="D11">
-        <f>A11*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>0.19163477730675779</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>4.5500000000000096</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>20.702500000000086</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>94.196375000000586</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>6.2218540701216567E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6.0959725720164739</v>
       </c>
@@ -11606,11 +12361,26 @@
         <v>0.14180074455824032</v>
       </c>
       <c r="D12">
-        <f>A12*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>0.15293830309574372</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>4.6000000000000103</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>21.160000000000096</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>97.336000000000666</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>6.4169728369966622E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7.4260975019837971</v>
       </c>
@@ -11618,11 +12388,26 @@
         <v>0.21917008172301583</v>
       </c>
       <c r="D13">
-        <f>A13*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>0.23899446427047036</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>4.6500000000000101</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>21.622500000000095</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>100.54462500000066</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>6.6153094038716609E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5.0222612486575873</v>
       </c>
@@ -11630,11 +12415,26 @@
         <v>7.2201886015081734E-2</v>
       </c>
       <c r="D14">
-        <f>A14*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>8.3471539022408586E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>4.7000000000000099</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>22.090000000000092</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>103.82300000000065</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>6.8168876319966598E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8.3905871819547269</v>
       </c>
@@ -11642,11 +12442,26 @@
         <v>0.34963948012944418</v>
       </c>
       <c r="D15">
-        <f>A15*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>0.3013948279362938</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>4.7500000000000098</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>22.562500000000092</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>107.17187500000065</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>7.0217313826216599E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4.136937965989631</v>
       </c>
@@ -11654,11 +12469,26 @@
         <v>5.4303484092558994E-2</v>
       </c>
       <c r="D16">
-        <f>A16*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>2.6193067362695083E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>4.8000000000000096</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>23.040000000000092</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>110.59200000000067</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>7.2298645169966619E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7.3523375508920115</v>
       </c>
@@ -11666,11 +12496,26 @@
         <v>0.21902899698176187</v>
       </c>
       <c r="D17">
-        <f>A17*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>0.2342223574582549</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>4.8500000000000103</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>23.5225000000001</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>114.08412500000072</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>7.441310896371664E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6.0865240118356354</v>
       </c>
@@ -11678,11 +12523,26 @@
         <v>0.14056012124788925</v>
       </c>
       <c r="D18">
-        <f>A18*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>0.15232700200704721</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>4.9000000000000101</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>24.010000000000097</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>117.64900000000073</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>7.6560943819966643E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6.7934491422287584</v>
       </c>
@@ -11690,11 +12550,26 @@
         <v>0.23323724413724314</v>
       </c>
       <c r="D19">
-        <f>A19*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>0.19806350508955825</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>4.9500000000000099</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>24.502500000000097</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>121.28737500000072</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>7.8742388351216636E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4.7019346929761685</v>
       </c>
@@ -11702,11 +12577,26 @@
         <v>6.137046245840852E-2</v>
       </c>
       <c r="D20">
-        <f>A20*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>6.2747114509184548E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>5.0000000000000098</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>25.000000000000099</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>125.00000000000074</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>8.0957681169966655E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4.9905074454243943</v>
       </c>
@@ -11714,11 +12604,26 @@
         <v>7.1135682400701561E-2</v>
       </c>
       <c r="D21">
-        <f>A21*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>8.1417137704621584E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <v>5.0500000000000096</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>25.502500000000097</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>128.78762500000073</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>8.3207060888716627E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8.0037228433776839</v>
       </c>
@@ -11726,11 +12631,26 @@
         <v>0.23432921329018042</v>
       </c>
       <c r="D22">
-        <f>A22*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>0.27636555502870463</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <v>5.1000000000000103</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>26.010000000000105</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>132.65100000000081</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="1"/>
+        <v>8.5490766119966671E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>8.8413078785969876</v>
       </c>
@@ -11738,11 +12658,26 @@
         <v>7.5002827677751807E-6</v>
       </c>
       <c r="D23">
-        <f>A23*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>0.33055546694182258</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <v>5.1500000000000101</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>26.522500000000104</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>136.59087500000081</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="1"/>
+        <v>8.7809035476216685E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5.5671208907962146</v>
       </c>
@@ -11750,11 +12685,26 @@
         <v>0.10450486195955119</v>
       </c>
       <c r="D24">
-        <f>A24*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>0.1187227610129907</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <v>5.2000000000000197</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>27.040000000000205</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>140.6080000000016</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>9.0162107569967148E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>7.4616130783465699</v>
       </c>
@@ -11762,11 +12712,26 @@
         <v>0.21772706113994239</v>
       </c>
       <c r="D25">
-        <f>A25*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>0.24129224404651226</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>5.2500000000000204</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="2"/>
+        <v>27.562500000000213</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="3"/>
+        <v>144.70312500000168</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="1"/>
+        <v>9.2550221013717182E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8.3819457614801927</v>
       </c>
@@ -11774,11 +12739,26 @@
         <v>0.34975357110315131</v>
       </c>
       <c r="D26">
-        <f>A26*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>0.30083574701360671</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <v>5.3000000000000203</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="2"/>
+        <v>28.090000000000213</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>148.87700000000169</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>9.4973614419967184E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8.4730333175192367</v>
       </c>
@@ -11786,11 +12766,26 @@
         <v>0.3527177519813155</v>
       </c>
       <c r="D27">
-        <f>A27*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>0.30672891180354911</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <v>5.3500000000000201</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="2"/>
+        <v>28.622500000000215</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>153.13037500000172</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>9.743252640121719E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4.4252210568488897</v>
       </c>
@@ -11798,11 +12793,26 @@
         <v>5.3278811635816936E-2</v>
       </c>
       <c r="D28">
-        <f>A28*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>4.4844350089605717E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <v>5.4000000000000199</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="2"/>
+        <v>29.160000000000213</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>157.46400000000173</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>9.9927195569967209E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4.1952739161644121</v>
       </c>
@@ -11810,11 +12820,26 @@
         <v>5.5061192352451049E-2</v>
       </c>
       <c r="D29">
-        <f>A29*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>2.9967275196424753E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <v>5.4500000000000197</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="2"/>
+        <v>29.702500000000214</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>161.87862500000176</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>0.10245786053871722</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4.8491520978228442</v>
       </c>
@@ -11822,11 +12847,26 @@
         <v>6.5181335574539284E-2</v>
       </c>
       <c r="D30">
-        <f>A30*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>7.2271757220393446E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <v>5.5000000000000204</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="2"/>
+        <v>30.250000000000224</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>166.37500000000185</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="1"/>
+        <v>0.10502475991996726</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8.3907125171470653</v>
       </c>
@@ -11834,11 +12874,26 @@
         <v>0.35368604360667044</v>
       </c>
       <c r="D31">
-        <f>A31*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>0.30140293684792285</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <v>5.5500000000000203</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="2"/>
+        <v>30.802500000000226</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="3"/>
+        <v>170.95387500000189</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="1"/>
+        <v>0.10762813232621726</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4.4917341691652508</v>
       </c>
@@ -11846,11 +12901,26 @@
         <v>5.5577703971467413E-2</v>
       </c>
       <c r="D32">
-        <f>A32*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>4.9147602351684666E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <v>5.6000000000000201</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="2"/>
+        <v>31.360000000000223</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="3"/>
+        <v>175.61600000000189</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="1"/>
+        <v>0.11026821636996728</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6.1055381250252605</v>
       </c>
@@ -11858,11 +12928,26 @@
         <v>0.14262929121698356</v>
       </c>
       <c r="D33">
-        <f>A33*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="0"/>
         <v>0.15355717336341831</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <v>5.6500000000000199</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="2"/>
+        <v>31.922500000000223</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="3"/>
+        <v>180.3621250000019</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="1"/>
+        <v>0.11294525066371727</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>8.7894476507525106</v>
       </c>
@@ -11870,11 +12955,26 @@
         <v>7.3826203558468209E-6</v>
       </c>
       <c r="D34">
-        <f>A34*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" ref="D34:D65" si="4">A34*0.064697803368621 + -0.241457731709085</f>
         <v>0.3272002241180888</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P34">
+        <v>5.7000000000000197</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="2"/>
+        <v>32.490000000000222</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="3"/>
+        <v>185.19300000000192</v>
+      </c>
+      <c r="T34">
+        <f t="shared" ref="T34:T65" si="5" xml:space="preserve"> 0.00033338*P34 + 0.00204513*Q34 + 0.00031815*R34 -0.0116062188300338</f>
+        <v>0.1156594738199673</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6.6658264248650854</v>
       </c>
@@ -11882,11 +12982,26 @@
         <v>0.22625665501675979</v>
       </c>
       <c r="D35">
-        <f>A35*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>0.18980659561619426</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P35">
+        <v>5.7500000000000204</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="2"/>
+        <v>33.062500000000234</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="3"/>
+        <v>190.10937500000202</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="5"/>
+        <v>0.11841112445121735</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7.4593855697523672</v>
       </c>
@@ -11894,11 +13009,26 @@
         <v>0.2204092806929486</v>
       </c>
       <c r="D36">
-        <f>A36*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>0.24114812913348263</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P36">
+        <v>5.8000000000000203</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="2"/>
+        <v>33.640000000000235</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="3"/>
+        <v>195.11200000000204</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="5"/>
+        <v>0.12120044116996734</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5.5775781550303147</v>
       </c>
@@ -11906,11 +13036,26 @@
         <v>0.10405169092825133</v>
       </c>
       <c r="D37">
-        <f>A37*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>0.11939932303818226</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P37">
+        <v>5.8500000000000201</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="2"/>
+        <v>34.222500000000238</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="3"/>
+        <v>200.20162500000208</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="5"/>
+        <v>0.12402766258871736</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7.4325046384079183</v>
       </c>
@@ -11918,11 +13063,26 @@
         <v>0.21961790877681237</v>
       </c>
       <c r="D38">
-        <f>A38*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>0.23940899192299406</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <v>5.9000000000000297</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="2"/>
+        <v>34.81000000000035</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="3"/>
+        <v>205.37900000000309</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="5"/>
+        <v>0.12689302731996793</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8.1731283594868636</v>
       </c>
@@ -11930,11 +13090,26 @@
         <v>0.26640816109322041</v>
       </c>
       <c r="D39">
-        <f>A39*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>0.28732571979949606</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P39">
+        <v>5.9500000000000304</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="2"/>
+        <v>35.402500000000359</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="3"/>
+        <v>210.6448750000032</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="5"/>
+        <v>0.12979677397621797</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4.0914413867209589</v>
       </c>
@@ -11942,11 +13117,26 @@
         <v>5.3690776255601126E-2</v>
       </c>
       <c r="D40">
-        <f>A40*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>2.324953862322568E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P40">
+        <v>6.0000000000000302</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="2"/>
+        <v>36.000000000000362</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="3"/>
+        <v>216.00000000000327</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="5"/>
+        <v>0.13273914116996802</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7.750721574724837</v>
       </c>
@@ -11954,11 +13144,26 @@
         <v>0.23981255523725453</v>
       </c>
       <c r="D41">
-        <f>A41*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>0.25999692869739111</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P41">
+        <v>6.05000000000003</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="2"/>
+        <v>36.602500000000362</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="3"/>
+        <v>221.44512500000329</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="5"/>
+        <v>0.13572036751371799</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>8.9443054445324748</v>
       </c>
@@ -11966,11 +13171,26 @@
         <v>7.491098904728774E-6</v>
       </c>
       <c r="D42">
-        <f>A42*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>0.33721918321016331</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P42">
+        <v>6.1000000000000298</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="2"/>
+        <v>37.210000000000363</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="3"/>
+        <v>226.98100000000332</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="5"/>
+        <v>0.13874069161996802</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7.740828271899197</v>
       </c>
@@ -11978,11 +13198,26 @@
         <v>0.23000964043674371</v>
       </c>
       <c r="D43">
-        <f>A43*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>0.25935685373651152</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P43">
+        <v>6.1500000000000297</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="2"/>
+        <v>37.822500000000367</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="3"/>
+        <v>232.60837500000338</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="5"/>
+        <v>0.14180035210121805</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5.402219960322026</v>
       </c>
@@ -11990,11 +13225,26 @@
         <v>9.1865515657099828E-2</v>
       </c>
       <c r="D44">
-        <f>A44*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>0.10805403303786901</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P44">
+        <v>6.2000000000000304</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="2"/>
+        <v>38.440000000000374</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="3"/>
+        <v>238.3280000000035</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="5"/>
+        <v>0.1448995875699681</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>7.9463966422574428</v>
       </c>
@@ -12002,11 +13252,26 @@
         <v>0.21820816628913361</v>
       </c>
       <c r="D45">
-        <f>A45*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>0.27265667574075725</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P45">
+        <v>6.2500000000000302</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="2"/>
+        <v>39.062500000000377</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="3"/>
+        <v>244.14062500000352</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="5"/>
+        <v>0.14803863663871811</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4.5161300328882099</v>
       </c>
@@ -12014,11 +13279,26 @@
         <v>5.8149290133549331E-2</v>
       </c>
       <c r="D46">
-        <f>A46*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>5.0725961145840354E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P46">
+        <v>6.30000000000003</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="2"/>
+        <v>39.690000000000381</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="3"/>
+        <v>250.04700000000361</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="5"/>
+        <v>0.15121773791996815</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6.2394676308795258</v>
       </c>
@@ -12026,11 +13306,26 @@
         <v>0.14909169651320134</v>
       </c>
       <c r="D47">
-        <f>A47*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>0.1622221181984341</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P47">
+        <v>6.3500000000000298</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="2"/>
+        <v>40.322500000000382</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="3"/>
+        <v>256.04787500000361</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="5"/>
+        <v>0.15443713002621814</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>8.542977515465477</v>
       </c>
@@ -12038,11 +13333,26 @@
         <v>3.237124831261358E-5</v>
       </c>
       <c r="D48">
-        <f>A48*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>0.3112541477690508</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P48">
+        <v>6.4000000000000297</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="2"/>
+        <v>40.960000000000377</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="3"/>
+        <v>262.14400000000364</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="5"/>
+        <v>0.15769705156996813</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5.4680707418683969</v>
       </c>
@@ -12050,11 +13360,26 @@
         <v>9.6968031831091511E-2</v>
       </c>
       <c r="D49">
-        <f>A49*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>0.11231443395402615</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P49">
+        <v>6.4500000000000304</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="2"/>
+        <v>41.60250000000039</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="3"/>
+        <v>268.33612500000379</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="5"/>
+        <v>0.16099774116371821</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5.4388766929317436</v>
       </c>
@@ -12062,11 +13387,26 @@
         <v>9.4150278587308636E-2</v>
       </c>
       <c r="D50">
-        <f>A50*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>0.11042564311638867</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P50">
+        <v>6.5000000000000302</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="2"/>
+        <v>42.250000000000391</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="3"/>
+        <v>274.62500000000381</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="5"/>
+        <v>0.16433943741996823</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4.6501428605913881</v>
       </c>
@@ -12074,11 +13414,26 @@
         <v>6.0002430630220149E-2</v>
       </c>
       <c r="D51">
-        <f>A51*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>5.939629672145344E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P51">
+        <v>6.55000000000003</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="2"/>
+        <v>42.902500000000394</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="3"/>
+        <v>281.01137500000385</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="5"/>
+        <v>0.16772237895121825</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4.0968347893514849</v>
       </c>
@@ -12086,11 +13441,26 @@
         <v>5.2415712407497816E-2</v>
       </c>
       <c r="D52">
-        <f>A52*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>2.3598479926103227E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P52">
+        <v>6.6000000000000396</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="2"/>
+        <v>43.560000000000521</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="3"/>
+        <v>287.49600000000515</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="5"/>
+        <v>0.17114680436996893</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>7.3941776646994546</v>
       </c>
@@ -12098,11 +13468,26 @@
         <v>0.21824690900626992</v>
       </c>
       <c r="D53">
-        <f>A53*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>0.23692932091428962</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P53">
+        <v>6.6500000000000403</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="2"/>
+        <v>44.222500000000537</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="3"/>
+        <v>294.07962500000536</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="5"/>
+        <v>0.17461295228871901</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5.0581405800002948</v>
       </c>
@@ -12110,11 +13495,26 @@
         <v>7.3638406111827703E-2</v>
       </c>
       <c r="D54">
-        <f>A54*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>8.5792852946616677E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P54">
+        <v>6.7000000000000401</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="2"/>
+        <v>44.890000000000541</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="3"/>
+        <v>300.76300000000543</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="5"/>
+        <v>0.17812106131996905</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5.3277332968611315</v>
       </c>
@@ -12122,11 +13522,26 @@
         <v>7.6115655830278905E-2</v>
       </c>
       <c r="D55">
-        <f>A55*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>0.10323490953169143</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P55">
+        <v>6.75000000000004</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="2"/>
+        <v>45.56250000000054</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="3"/>
+        <v>307.54687500000546</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="5"/>
+        <v>0.18167137007621906</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6.4578657964016912</v>
       </c>
@@ -12134,11 +13549,26 @@
         <v>0.18045543599836911</v>
       </c>
       <c r="D56">
-        <f>A56*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>0.17635199976745472</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P56">
+        <v>6.8000000000000398</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="2"/>
+        <v>46.240000000000542</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="3"/>
+        <v>314.43200000000553</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="5"/>
+        <v>0.1852641171699691</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4.2668127255854023</v>
       </c>
@@ -12146,11 +13576,26 @@
         <v>5.6923853600158891E-2</v>
       </c>
       <c r="D57">
-        <f>A57*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>3.4595679021569209E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P57">
+        <v>6.8500000000000396</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="2"/>
+        <v>46.922500000000539</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="3"/>
+        <v>321.41912500000558</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="5"/>
+        <v>0.1888995412137191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6.8705880274600659</v>
       </c>
@@ -12158,11 +13603,26 @@
         <v>0.24043434448545284</v>
       </c>
       <c r="D58">
-        <f>A58*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>0.203054221518328</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P58">
+        <v>6.9000000000000403</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="2"/>
+        <v>47.610000000000554</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="3"/>
+        <v>328.50900000000576</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="5"/>
+        <v>0.19257788081996918</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4.7336428745290506</v>
       </c>
@@ -12170,11 +13630,26 @@
         <v>6.2436598820577761E-2</v>
       </c>
       <c r="D59">
-        <f>A59*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>6.4798564204469472E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P59">
+        <v>6.9500000000000401</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="2"/>
+        <v>48.302500000000556</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="3"/>
+        <v>335.70237500000582</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="5"/>
+        <v>0.19629937460121921</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6.946527684516421</v>
       </c>
@@ -12182,11 +13657,26 @@
         <v>0.24140262794666276</v>
       </c>
       <c r="D60">
-        <f>A60*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>0.20796735051844059</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P60">
+        <v>7.00000000000004</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="2"/>
+        <v>49.000000000000561</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="3"/>
+        <v>343.00000000000591</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="5"/>
+        <v>0.20006426116996925</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>7.4987918001046561</v>
       </c>
@@ -12194,11 +13684,26 @@
         <v>0.21842200834185621</v>
       </c>
       <c r="D61">
-        <f>A61*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>0.24369762567631362</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P61">
+        <v>7.0500000000000398</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="2"/>
+        <v>49.702500000000562</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="3"/>
+        <v>350.40262500000591</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="5"/>
+        <v>0.20387277913871926</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4.511672144139129</v>
       </c>
@@ -12206,11 +13711,26 @@
         <v>5.2193778066431079E-2</v>
       </c>
       <c r="D62">
-        <f>A62*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>5.0437545536113099E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P62">
+        <v>7.1000000000000396</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="2"/>
+        <v>50.410000000000565</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="3"/>
+        <v>357.91100000000603</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="5"/>
+        <v>0.20772516711996927</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6.0702799390978415</v>
       </c>
@@ -12218,11 +13738,26 @@
         <v>0.13969089326929346</v>
       </c>
       <c r="D63">
-        <f>A63*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>0.15127604618315185</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P63">
+        <v>7.1500000000000403</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="2"/>
+        <v>51.122500000000578</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="3"/>
+        <v>365.52587500000618</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="5"/>
+        <v>0.21162166372621938</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7.4720007886387254</v>
       </c>
@@ -12230,11 +13765,26 @@
         <v>0.22155619800190346</v>
       </c>
       <c r="D64">
-        <f>A64*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>0.24196430608444433</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P64">
+        <v>7.2000000000000401</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="2"/>
+        <v>51.840000000000579</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="3"/>
+        <v>373.24800000000624</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="5"/>
+        <v>0.21556250756996939</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6.0708963476345135</v>
       </c>
@@ -12242,11 +13792,26 @@
         <v>0.1397857526117588</v>
       </c>
       <c r="D65">
-        <f>A65*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="4"/>
         <v>0.15131592646145217</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P65">
+        <v>7.25000000000004</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="2"/>
+        <v>52.562500000000583</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="3"/>
+        <v>381.07812500000631</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="5"/>
+        <v>0.21954793726371943</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4.2497672947304359</v>
       </c>
@@ -12254,11 +13819,26 @@
         <v>5.3650480193999962E-2</v>
       </c>
       <c r="D66">
-        <f>A66*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" ref="D66:D81" si="6">A66*0.064697803368621 + -0.241457731709085</f>
         <v>3.3492877087781175E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P66">
+        <v>7.3000000000000496</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="2"/>
+        <v>53.290000000000724</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="3"/>
+        <v>389.0170000000079</v>
+      </c>
+      <c r="T66">
+        <f t="shared" ref="T66:T89" si="7" xml:space="preserve"> 0.00033338*P66 + 0.00204513*Q66 + 0.00031815*R66 -0.0116062188300338</f>
+        <v>0.22357819141997023</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6.6794820295775583</v>
       </c>
@@ -12266,11 +13846,26 @@
         <v>0.22656179229775103</v>
       </c>
       <c r="D67">
-        <f>A67*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="6"/>
         <v>0.19069008324476142</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P67">
+        <v>7.3500000000000503</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q89" si="8">P67^2</f>
+        <v>54.02250000000074</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67:R89" si="9">P67^3</f>
+        <v>397.06537500000815</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="7"/>
+        <v>0.22765350865122033</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>7.3189732260989437</v>
       </c>
@@ -12278,11 +13873,26 @@
         <v>0.21911634896642135</v>
       </c>
       <c r="D68">
-        <f>A68*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="6"/>
         <v>0.23206375893326622</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P68">
+        <v>7.4000000000000501</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="8"/>
+        <v>54.760000000000744</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="9"/>
+        <v>405.22400000000823</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="7"/>
+        <v>0.23177412756997037</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6.5744455602915428</v>
       </c>
@@ -12290,11 +13900,26 @@
         <v>0.20965512516767007</v>
       </c>
       <c r="D69">
-        <f>A69*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="6"/>
         <v>0.18389445440836058</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P69">
+        <v>7.4500000000000499</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="8"/>
+        <v>55.502500000000744</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="9"/>
+        <v>413.49362500000831</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="7"/>
+        <v>0.23594028678872039</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>8.7229737799540672</v>
       </c>
@@ -12302,11 +13927,26 @@
         <v>7.4799708623341011E-6</v>
       </c>
       <c r="D70">
-        <f>A70*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="6"/>
         <v>0.32289951069601996</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P70">
+        <v>7.5000000000000497</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="8"/>
+        <v>56.250000000000746</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="9"/>
+        <v>421.87500000000841</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="7"/>
+        <v>0.24015222491997043</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6.9327752025099647</v>
       </c>
@@ -12314,11 +13954,26 @@
         <v>0.23986305132543961</v>
       </c>
       <c r="D71">
-        <f>A71*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="6"/>
         <v>0.20707759514175636</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P71">
+        <v>7.5500000000000496</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="8"/>
+        <v>57.002500000000751</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="9"/>
+        <v>430.36887500000847</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="7"/>
+        <v>0.24441018057622046</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>8.5170095764394169</v>
       </c>
@@ -12326,11 +13981,26 @@
         <v>0.34658430138999202</v>
       </c>
       <c r="D72">
-        <f>A72*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="6"/>
         <v>0.3095740791560545</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P72">
+        <v>7.6000000000000503</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="8"/>
+        <v>57.760000000000765</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="9"/>
+        <v>438.9760000000087</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="7"/>
+        <v>0.24871439236997053</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4.687373520731188</v>
       </c>
@@ -12338,11 +14008,26 @@
         <v>6.0952466528088278E-2</v>
       </c>
       <c r="D73">
-        <f>A73*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="6"/>
         <v>6.1805038650462191E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P73">
+        <v>7.6500000000000501</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="8"/>
+        <v>58.522500000000768</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="9"/>
+        <v>447.69712500000878</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="7"/>
+        <v>0.25306509891372059</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4.6963817362537927</v>
       </c>
@@ -12350,11 +14035,26 @@
         <v>6.080829066214273E-2</v>
       </c>
       <c r="D74">
-        <f>A74*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="6"/>
         <v>6.2387850407045836E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P74">
+        <v>7.7000000000000499</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="8"/>
+        <v>59.290000000000767</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="9"/>
+        <v>456.53300000000888</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="7"/>
+        <v>0.25746253881997061</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>8.03695644354762</v>
       </c>
@@ -12362,11 +14062,26 @@
         <v>0.27601088351148217</v>
       </c>
       <c r="D75">
-        <f>A75*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="6"/>
         <v>0.27851569595773051</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P75">
+        <v>7.7500000000000497</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="8"/>
+        <v>60.062500000000767</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="9"/>
+        <v>465.48437500000892</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="7"/>
+        <v>0.26190695070122061</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5.9883841849276678</v>
       </c>
@@ -12374,11 +14089,26 @@
         <v>0.13389989060983143</v>
       </c>
       <c r="D76">
-        <f>A76*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="6"/>
         <v>0.14597757078312504</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P76">
+        <v>7.8000000000000496</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="8"/>
+        <v>60.840000000000771</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="9"/>
+        <v>474.552000000009</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="7"/>
+        <v>0.26639857316997068</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4.8267709855846643</v>
       </c>
@@ -12386,11 +14116,26 @@
         <v>6.4480916805117972E-2</v>
       </c>
       <c r="D77">
-        <f>A77*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="6"/>
         <v>7.0823748421636662E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P77">
+        <v>7.8500000000000503</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="8"/>
+        <v>61.622500000000791</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="9"/>
+        <v>483.73662500000933</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="7"/>
+        <v>0.27093764483872079</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>8.6375429019801686</v>
       </c>
@@ -12398,11 +14143,26 @@
         <v>7.7758821947119413E-6</v>
       </c>
       <c r="D78">
-        <f>A78*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="6"/>
         <v>0.31737232055125597</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P78">
+        <v>7.9000000000000501</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="8"/>
+        <v>62.410000000000792</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="9"/>
+        <v>493.03900000000937</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="7"/>
+        <v>0.27552440431997077</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5.7388292987275324</v>
       </c>
@@ -12410,11 +14170,26 @@
         <v>0.11638452562212021</v>
       </c>
       <c r="D79">
-        <f>A79*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="6"/>
         <v>0.12983191782607009</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P79">
+        <v>7.9500000000000499</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="8"/>
+        <v>63.202500000000796</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="9"/>
+        <v>502.4598750000095</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="7"/>
+        <v>0.28015909022622082</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7.7540605156807771</v>
       </c>
@@ -12422,11 +14197,26 @@
         <v>0.22731126009424271</v>
       </c>
       <c r="D80">
-        <f>A80*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="6"/>
         <v>0.26021295084281792</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P80">
+        <v>8.0000000000000604</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="8"/>
+        <v>64.000000000000966</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="9"/>
+        <v>512.0000000000116</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="7"/>
+        <v>0.28484194116997186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>7.6299899267522573</v>
       </c>
@@ -12434,8 +14224,159 @@
         <v>0.23671763854010949</v>
       </c>
       <c r="D81">
-        <f>A81*0.064697803368621 + -0.241457731709085</f>
+        <f t="shared" si="6"/>
         <v>0.25218585627649159</v>
+      </c>
+      <c r="P81">
+        <v>8.0500000000000593</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="8"/>
+        <v>64.802500000000961</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="9"/>
+        <v>521.66012500001159</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="7"/>
+        <v>0.28957319576372181</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P82">
+        <v>8.10000000000006</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="8"/>
+        <v>65.610000000000966</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="9"/>
+        <v>531.44100000001174</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="7"/>
+        <v>0.29435309261997195</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P83">
+        <v>8.1500000000000608</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="8"/>
+        <v>66.422500000000994</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="9"/>
+        <v>541.34337500001209</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="7"/>
+        <v>0.29918187035122207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P84">
+        <v>8.2000000000000597</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="8"/>
+        <v>67.240000000000975</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="9"/>
+        <v>551.36800000001199</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="7"/>
+        <v>0.30405976756997205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P85">
+        <v>8.2500000000000604</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="8"/>
+        <v>68.062500000000995</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="9"/>
+        <v>561.51562500001228</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="7"/>
+        <v>0.30898702288872215</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P86">
+        <v>8.3000000000000593</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="8"/>
+        <v>68.890000000000981</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="9"/>
+        <v>571.7870000000122</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="7"/>
+        <v>0.31396387491997207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P87">
+        <v>8.35000000000006</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="8"/>
+        <v>69.722500000001006</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="9"/>
+        <v>582.18287500001259</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="7"/>
+        <v>0.3189905622762223</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P88">
+        <v>8.4000000000000608</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="8"/>
+        <v>70.560000000001025</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="9"/>
+        <v>592.70400000001291</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="7"/>
+        <v>0.32406732356997242</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P89">
+        <v>8.4500000000000597</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="8"/>
+        <v>71.402500000001012</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="9"/>
+        <v>603.35112500001287</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="7"/>
+        <v>0.32919439741372236</v>
       </c>
     </row>
   </sheetData>
